--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8051" uniqueCount="1047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7797" uniqueCount="1040">
   <si>
     <t>Property</t>
   </si>
@@ -1624,7 +1624,7 @@
     <t>JP Core MedicationRequest DosageInstruction UsageDuration Extension</t>
   </si>
   <si>
-    <t>隔日投与など、服用開始日から終了日までの日数と実投与日数が異なる場合に、実投与日数を明⽰したい場合に使⽤する拡張</t>
+    <t>隔日投与など、服用開始日から終了日までの日数と実投与日数が異なる場合に、実投与日数を明⽰したい場合に使用する拡張</t>
   </si>
   <si>
     <t>line</t>
@@ -1796,7 +1796,7 @@
     <t>服用もしくは注射を行なうタイミングを示す時刻</t>
   </si>
   <si>
-    <t>服用タイミングを具体的な日時で指定する場合に使⽤する</t>
+    <t>服用タイミングを具体的な日時で指定する場合に使用する</t>
   </si>
   <si>
     <t>In a Medication Administration Record, for instance, you need to take a general specification, and turn it into a precise specification.</t>
@@ -2280,7 +2280,7 @@
     <t>「頓用」指示</t>
   </si>
   <si>
-    <t>JP Coreでは頓⽤型の用法を指定する場合に”true”を指定し、そのコードを指定する場合は用法コードとして指定する。
+    <t>JP Coreでは頓用型の用法を指定する場合に”true”を指定し、そのコードを指定する場合は用法コードとして指定する。
 Medication(薬剤)が必要なときに指定された量とスケジュールのみで内服するか（Booleanで選択される）、内服する前提条件(CodeableConcept)を示している。</t>
   </si>
   <si>
@@ -2302,11 +2302,11 @@
     <t>投与される身体部位</t>
   </si>
   <si>
-    <t>投与される身体部位。外⽤薬で部位を指定する場合に使⽤する。</t>
+    <t>投与される身体部位。外用薬で部位を指定する場合に使用する。</t>
   </si>
   <si>
     <t>もし、BodySite resourceの属性が必要な場合(たとえば、部位の指定や別々に投与経路を設定する場合)は、[bodySite](http://hl7.org/fhir/R4/extension-bodysite.html)の標準拡張を使うこと。要約コードや非常に正確な位置の定義へのreferenceを使用することもできる。  
-【JP Core仕様】JAMI外⽤部位３桁コードを使用することが望ましいが、ローカルコードも使用可能。</t>
+【JP Core仕様】JAMI外用部位３桁コードを使用することが望ましいが、ローカルコードも使用可能。</t>
   </si>
   <si>
     <t>A coded specification of the anatomic site where the medication first enters the body.</t>
@@ -2535,42 +2535,6 @@
     <t>SN (see also Range) or CQ</t>
   </si>
   <si>
-    <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].value</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].comparator</t>
-  </si>
-  <si>
-    <t>Not allowed to be used in this context</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].unit</t>
-  </si>
-  <si>
-    <t>Unit representation</t>
-  </si>
-  <si>
-    <t>A human-readable form of the unit.</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].system</t>
-  </si>
-  <si>
-    <t>UCUMを識別するURL。</t>
-  </si>
-  <si>
-    <t>UCUMを識別するURL。固定値。</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].code</t>
-  </si>
-  <si>
     <t>doseRange</t>
   </si>
   <si>
@@ -2617,22 +2581,43 @@
 </t>
   </si>
   <si>
+    <t>It is possible to supply both a rate and a doseQuantity to provide full details about how the medication is to be administered and supplied. If the rate is intended to change over time, depending on local rules/regulations, each change should be captured as a new version of the MedicationRequest with an updated rate, or captured with a new MedicationRequest with the new rate.++It is possible to specify a rate over time (for example, 100 ml/hour) using either the rateRatio and rateQuantity.  The rateQuantity approach requires systems to have the capability to parse UCUM grammer where ml/hour is included rather than a specific ratio where the time is specified as the denominator.  Where a rate such as 500ml over 2 hours is specified, the use of rateRatio may be more semantically correct than specifying using a rateQuantity of 250 mg/hour.</t>
+  </si>
+  <si>
+    <t>Identifies the speed with which the medication was or will be introduced into the patient. Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.   Other examples: 200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x]</t>
+  </si>
+  <si>
+    <t>.rateQuantity</t>
+  </si>
+  <si>
+    <t>RXE22, RXE23, RXE-24</t>
+  </si>
+  <si>
+    <t>rateRatio</t>
+  </si>
+  <si>
     <t>単位時間内での薬剤の容量（体積）</t>
   </si>
   <si>
+    <t>A relationship of two Quantity values - expressed as a numerator and a denominator.</t>
+  </si>
+  <si>
     <t>【JP Core仕様】単位時間内での薬剤の容量（体積）、すなわち投与速度を記述する。単位はUCUMを使用する。</t>
   </si>
   <si>
     <t>患者の体内に導入される、あるいはされた薬剤の速度を指定する。一般的には、たとえば1時間あたり100mlあるいは100ml/hrのように注射の速度を示す。たとえば、500mlを2時間でというように、単位時間あたりの速さを表現することもできる。その他、200マイクログラム/minや200マイクログラム/1分, 1 リットル/8時間のような表現もできる。しばしば、投与速度を投与総量/ 投与総時間で表ような場合に投与時間が明示される（たとえば、500ml/2時間という場合は、投与時間が2時間であることを示している）。しかしながら、投与速度で投与時間が明示されない場合（たとえば、250ml/毎時)は、timing.repeat.durationが注射の総投与時間を示すためには必要となる。</t>
   </si>
   <si>
-    <t>Dosage.doseAndRate.rate[x]</t>
-  </si>
-  <si>
-    <t>.rateQuantity</t>
-  </si>
-  <si>
-    <t>RXE22, RXE23, RXE-24</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
+  </si>
+  <si>
+    <t>RTO</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.doseAndRate.rate[x].id</t>
@@ -2732,10 +2717,22 @@
     <t>MedicationRequest.dosageInstruction.doseAndRate.rate[x].denominator.system</t>
   </si>
   <si>
+    <t>UCUMを識別するURL。</t>
+  </si>
+  <si>
+    <t>UCUMを識別するURL。固定値。</t>
+  </si>
+  <si>
     <t>MedicationRequest.dosageInstruction.doseAndRate.rate[x].denominator.code</t>
   </si>
   <si>
-    <t>rateRatio</t>
+    <t>rateRange</t>
+  </si>
+  <si>
+    <t>rateQuantity</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.maxDosePerPeriod</t>
   </si>
   <si>
     <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRatio}
@@ -2745,29 +2742,7 @@
     <t>A ratio of two Quantity values - a numerator and a denominator</t>
   </si>
   <si>
-    <t>A relationship of two Quantity values - expressed as a numerator and a denominator.</t>
-  </si>
-  <si>
     <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
-  </si>
-  <si>
-    <t>Identifies the speed with which the medication was or will be introduced into the patient. Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.   Other examples: 200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
-  </si>
-  <si>
-    <t>RTO</t>
-  </si>
-  <si>
-    <t>rateRange</t>
-  </si>
-  <si>
-    <t>rateQuantity</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.maxDosePerPeriod</t>
   </si>
   <si>
     <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
@@ -3117,6 +3092,12 @@
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.expectedSupplyDuration.unit</t>
+  </si>
+  <si>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.expectedSupplyDuration.system</t>
@@ -3579,7 +3560,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN222"/>
+  <dimension ref="A1:AN215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -19728,9 +19709,11 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
+        <v>797</v>
+      </c>
+      <c r="B142" t="s" s="2">
         <v>806</v>
       </c>
-      <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
         <v>80</v>
       </c>
@@ -19751,16 +19734,20 @@
         <v>80</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>90</v>
+        <v>807</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>168</v>
+        <v>808</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M142" s="2"/>
-      <c r="N142" s="2"/>
+        <v>809</v>
+      </c>
+      <c r="M142" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="N142" t="s" s="2">
+        <v>801</v>
+      </c>
       <c r="O142" t="s" s="2">
         <v>80</v>
       </c>
@@ -19808,7 +19795,7 @@
         <v>80</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>170</v>
+        <v>802</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>78</v>
@@ -19817,10 +19804,10 @@
         <v>88</v>
       </c>
       <c r="AH142" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>80</v>
+        <v>811</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>80</v>
@@ -19829,29 +19816,31 @@
         <v>80</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>171</v>
+        <v>812</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN142" t="s" s="2">
-        <v>80</v>
+        <v>813</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>807</v>
-      </c>
-      <c r="B143" s="2"/>
+        <v>797</v>
+      </c>
+      <c r="B143" t="s" s="2">
+        <v>814</v>
+      </c>
       <c r="C143" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F143" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>80</v>
@@ -19863,18 +19852,20 @@
         <v>80</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>133</v>
+        <v>815</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>173</v>
+        <v>816</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>174</v>
+        <v>816</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N143" s="2"/>
+        <v>817</v>
+      </c>
+      <c r="N143" t="s" s="2">
+        <v>801</v>
+      </c>
       <c r="O143" t="s" s="2">
         <v>80</v>
       </c>
@@ -19910,31 +19901,31 @@
         <v>80</v>
       </c>
       <c r="AA143" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB143" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AC143" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD143" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>176</v>
+        <v>802</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH143" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>139</v>
+        <v>803</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>80</v>
@@ -19943,18 +19934,18 @@
         <v>80</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>171</v>
+        <v>804</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN143" t="s" s="2">
-        <v>80</v>
+        <v>805</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>808</v>
+        <v>818</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -19977,19 +19968,19 @@
         <v>89</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>592</v>
+        <v>819</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>799</v>
+        <v>784</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>594</v>
+        <v>820</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>595</v>
+        <v>821</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>80</v>
@@ -20026,19 +20017,17 @@
         <v>80</v>
       </c>
       <c r="AA144" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB144" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="AB144" s="2"/>
       <c r="AC144" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD144" t="s" s="2">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>596</v>
+        <v>822</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>78</v>
@@ -20059,20 +20048,22 @@
         <v>80</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>597</v>
+        <v>823</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN144" t="s" s="2">
-        <v>598</v>
+        <v>824</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>809</v>
-      </c>
-      <c r="B145" s="2"/>
+        <v>818</v>
+      </c>
+      <c r="B145" t="s" s="2">
+        <v>825</v>
+      </c>
       <c r="C145" t="s" s="2">
         <v>80</v>
       </c>
@@ -20081,36 +20072,36 @@
         <v>78</v>
       </c>
       <c r="F145" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H145" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I145" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>108</v>
+        <v>819</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>600</v>
+        <v>826</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>810</v>
-      </c>
-      <c r="M145" s="2"/>
+        <v>827</v>
+      </c>
+      <c r="M145" t="s" s="2">
+        <v>828</v>
+      </c>
       <c r="N145" t="s" s="2">
-        <v>602</v>
+        <v>829</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P145" t="s" s="2">
-        <v>603</v>
-      </c>
+      <c r="P145" s="2"/>
       <c r="Q145" t="s" s="2">
         <v>80</v>
       </c>
@@ -20130,13 +20121,13 @@
         <v>80</v>
       </c>
       <c r="W145" t="s" s="2">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="X145" t="s" s="2">
-        <v>604</v>
+        <v>80</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>605</v>
+        <v>80</v>
       </c>
       <c r="Z145" t="s" s="2">
         <v>80</v>
@@ -20154,7 +20145,7 @@
         <v>80</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>606</v>
+        <v>822</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>78</v>
@@ -20163,10 +20154,10 @@
         <v>88</v>
       </c>
       <c r="AH145" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>100</v>
+        <v>830</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>80</v>
@@ -20175,18 +20166,18 @@
         <v>80</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>607</v>
+        <v>831</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN145" t="s" s="2">
-        <v>608</v>
+        <v>131</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>811</v>
+        <v>832</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -20206,21 +20197,19 @@
         <v>80</v>
       </c>
       <c r="I146" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J146" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>812</v>
+        <v>168</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>813</v>
+        <v>169</v>
       </c>
       <c r="M146" s="2"/>
-      <c r="N146" t="s" s="2">
-        <v>612</v>
-      </c>
+      <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
         <v>80</v>
       </c>
@@ -20268,7 +20257,7 @@
         <v>80</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>614</v>
+        <v>170</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>78</v>
@@ -20280,7 +20269,7 @@
         <v>80</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>80</v>
@@ -20289,29 +20278,29 @@
         <v>80</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>615</v>
+        <v>171</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN146" t="s" s="2">
-        <v>616</v>
+        <v>80</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>814</v>
+        <v>833</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F147" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>80</v>
@@ -20320,27 +20309,27 @@
         <v>80</v>
       </c>
       <c r="I147" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>815</v>
+        <v>173</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>816</v>
-      </c>
-      <c r="M147" s="2"/>
-      <c r="N147" t="s" s="2">
-        <v>620</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="M147" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P147" s="2"/>
       <c r="Q147" t="s" s="2">
-        <v>621</v>
+        <v>80</v>
       </c>
       <c r="R147" t="s" s="2">
         <v>80</v>
@@ -20370,31 +20359,31 @@
         <v>80</v>
       </c>
       <c r="AA147" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB147" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AC147" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD147" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>622</v>
+        <v>176</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH147" t="s" s="2">
-        <v>623</v>
+        <v>80</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>80</v>
@@ -20403,18 +20392,18 @@
         <v>80</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>624</v>
+        <v>171</v>
       </c>
       <c r="AM147" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN147" t="s" s="2">
-        <v>616</v>
+        <v>80</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>817</v>
+        <v>834</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -20437,20 +20426,16 @@
         <v>89</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>108</v>
+        <v>835</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>618</v>
+        <v>836</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>629</v>
-      </c>
+        <v>836</v>
+      </c>
+      <c r="M148" s="2"/>
+      <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
         <v>80</v>
       </c>
@@ -20498,7 +20483,7 @@
         <v>80</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>631</v>
+        <v>837</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>78</v>
@@ -20519,22 +20504,20 @@
         <v>80</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>632</v>
+        <v>838</v>
       </c>
       <c r="AM148" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN148" t="s" s="2">
-        <v>616</v>
+        <v>80</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>797</v>
-      </c>
-      <c r="B149" t="s" s="2">
-        <v>818</v>
-      </c>
+        <v>839</v>
+      </c>
+      <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
         <v>80</v>
       </c>
@@ -20555,20 +20538,16 @@
         <v>80</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>819</v>
+        <v>90</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>820</v>
+        <v>168</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>821</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>822</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>801</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="M149" s="2"/>
+      <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
         <v>80</v>
       </c>
@@ -20616,7 +20595,7 @@
         <v>80</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>802</v>
+        <v>170</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>78</v>
@@ -20625,10 +20604,10 @@
         <v>88</v>
       </c>
       <c r="AH149" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>823</v>
+        <v>80</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>80</v>
@@ -20637,31 +20616,29 @@
         <v>80</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>824</v>
+        <v>171</v>
       </c>
       <c r="AM149" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN149" t="s" s="2">
-        <v>825</v>
+        <v>80</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>797</v>
-      </c>
-      <c r="B150" t="s" s="2">
-        <v>826</v>
-      </c>
+        <v>840</v>
+      </c>
+      <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F150" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G150" t="s" s="2">
         <v>80</v>
@@ -20673,20 +20650,18 @@
         <v>80</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>827</v>
+        <v>133</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>828</v>
+        <v>173</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>828</v>
+        <v>174</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>829</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>801</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
         <v>80</v>
       </c>
@@ -20722,31 +20697,31 @@
         <v>80</v>
       </c>
       <c r="AA150" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB150" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AC150" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD150" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>802</v>
+        <v>176</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH150" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>803</v>
+        <v>139</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>80</v>
@@ -20755,18 +20730,18 @@
         <v>80</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>804</v>
+        <v>171</v>
       </c>
       <c r="AM150" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN150" t="s" s="2">
-        <v>805</v>
+        <v>80</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>830</v>
+        <v>841</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -20789,19 +20764,19 @@
         <v>89</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>831</v>
+        <v>592</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>785</v>
+        <v>836</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>833</v>
+        <v>594</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>834</v>
+        <v>595</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>80</v>
@@ -20838,17 +20813,19 @@
         <v>80</v>
       </c>
       <c r="AA151" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AB151" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AB151" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AC151" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD151" t="s" s="2">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>835</v>
+        <v>596</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>78</v>
@@ -20869,18 +20846,18 @@
         <v>80</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>836</v>
+        <v>597</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN151" t="s" s="2">
-        <v>837</v>
+        <v>598</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -20897,26 +20874,30 @@
         <v>80</v>
       </c>
       <c r="H152" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I152" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>168</v>
+        <v>600</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>169</v>
+        <v>601</v>
       </c>
       <c r="M152" s="2"/>
-      <c r="N152" s="2"/>
+      <c r="N152" t="s" s="2">
+        <v>602</v>
+      </c>
       <c r="O152" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P152" s="2"/>
+      <c r="P152" t="s" s="2">
+        <v>603</v>
+      </c>
       <c r="Q152" t="s" s="2">
         <v>80</v>
       </c>
@@ -20936,13 +20917,13 @@
         <v>80</v>
       </c>
       <c r="W152" t="s" s="2">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>80</v>
+        <v>604</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>80</v>
+        <v>605</v>
       </c>
       <c r="Z152" t="s" s="2">
         <v>80</v>
@@ -20960,7 +20941,7 @@
         <v>80</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>170</v>
+        <v>606</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>78</v>
@@ -20972,7 +20953,7 @@
         <v>80</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>80</v>
@@ -20981,29 +20962,29 @@
         <v>80</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>171</v>
+        <v>607</v>
       </c>
       <c r="AM152" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN152" t="s" s="2">
-        <v>80</v>
+        <v>608</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F153" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G153" t="s" s="2">
         <v>80</v>
@@ -21012,21 +20993,21 @@
         <v>80</v>
       </c>
       <c r="I153" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>173</v>
+        <v>844</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M153" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N153" s="2"/>
+        <v>845</v>
+      </c>
+      <c r="M153" s="2"/>
+      <c r="N153" t="s" s="2">
+        <v>612</v>
+      </c>
       <c r="O153" t="s" s="2">
         <v>80</v>
       </c>
@@ -21062,31 +21043,31 @@
         <v>80</v>
       </c>
       <c r="AA153" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB153" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AC153" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD153" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>176</v>
+        <v>614</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>80</v>
@@ -21095,18 +21076,18 @@
         <v>80</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>171</v>
+        <v>615</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN153" t="s" s="2">
-        <v>80</v>
+        <v>616</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -21129,22 +21110,24 @@
         <v>89</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>841</v>
+        <v>102</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="M154" s="2"/>
-      <c r="N154" s="2"/>
+      <c r="N154" t="s" s="2">
+        <v>620</v>
+      </c>
       <c r="O154" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P154" s="2"/>
       <c r="Q154" t="s" s="2">
-        <v>80</v>
+        <v>621</v>
       </c>
       <c r="R154" t="s" s="2">
         <v>80</v>
@@ -21186,7 +21169,7 @@
         <v>80</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>843</v>
+        <v>622</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>78</v>
@@ -21195,7 +21178,7 @@
         <v>88</v>
       </c>
       <c r="AH154" t="s" s="2">
-        <v>80</v>
+        <v>623</v>
       </c>
       <c r="AI154" t="s" s="2">
         <v>100</v>
@@ -21207,18 +21190,18 @@
         <v>80</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>844</v>
+        <v>624</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN154" t="s" s="2">
-        <v>80</v>
+        <v>616</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -21238,19 +21221,23 @@
         <v>80</v>
       </c>
       <c r="I155" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>168</v>
+        <v>850</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M155" s="2"/>
-      <c r="N155" s="2"/>
+        <v>851</v>
+      </c>
+      <c r="M155" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="N155" t="s" s="2">
+        <v>629</v>
+      </c>
       <c r="O155" t="s" s="2">
         <v>80</v>
       </c>
@@ -21298,7 +21285,7 @@
         <v>80</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>170</v>
+        <v>631</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>78</v>
@@ -21310,7 +21297,7 @@
         <v>80</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>80</v>
@@ -21319,29 +21306,29 @@
         <v>80</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>171</v>
+        <v>632</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN155" t="s" s="2">
-        <v>80</v>
+        <v>616</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F156" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G156" t="s" s="2">
         <v>80</v>
@@ -21350,20 +21337,18 @@
         <v>80</v>
       </c>
       <c r="I156" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>133</v>
+        <v>835</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>173</v>
+        <v>853</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M156" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>853</v>
+      </c>
+      <c r="M156" s="2"/>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
         <v>80</v>
@@ -21400,31 +21385,31 @@
         <v>80</v>
       </c>
       <c r="AA156" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB156" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AC156" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD156" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>176</v>
+        <v>854</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>80</v>
@@ -21433,7 +21418,7 @@
         <v>80</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>171</v>
+        <v>855</v>
       </c>
       <c r="AM156" t="s" s="2">
         <v>80</v>
@@ -21444,7 +21429,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>847</v>
+        <v>856</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -21464,23 +21449,19 @@
         <v>80</v>
       </c>
       <c r="I157" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>592</v>
+        <v>90</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>842</v>
+        <v>168</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>842</v>
-      </c>
-      <c r="M157" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="N157" t="s" s="2">
-        <v>595</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="M157" s="2"/>
+      <c r="N157" s="2"/>
       <c r="O157" t="s" s="2">
         <v>80</v>
       </c>
@@ -21528,7 +21509,7 @@
         <v>80</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>596</v>
+        <v>170</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>78</v>
@@ -21540,7 +21521,7 @@
         <v>80</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ157" t="s" s="2">
         <v>80</v>
@@ -21549,58 +21530,56 @@
         <v>80</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>597</v>
+        <v>171</v>
       </c>
       <c r="AM157" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN157" t="s" s="2">
-        <v>598</v>
+        <v>80</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>848</v>
+        <v>857</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F158" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H158" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I158" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>600</v>
+        <v>173</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="M158" s="2"/>
-      <c r="N158" t="s" s="2">
-        <v>602</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="M158" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N158" s="2"/>
       <c r="O158" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P158" t="s" s="2">
-        <v>603</v>
-      </c>
+      <c r="P158" s="2"/>
       <c r="Q158" t="s" s="2">
         <v>80</v>
       </c>
@@ -21620,43 +21599,43 @@
         <v>80</v>
       </c>
       <c r="W158" t="s" s="2">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="X158" t="s" s="2">
-        <v>604</v>
+        <v>80</v>
       </c>
       <c r="Y158" t="s" s="2">
-        <v>605</v>
+        <v>80</v>
       </c>
       <c r="Z158" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AA158" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB158" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AC158" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD158" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>606</v>
+        <v>176</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI158" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ158" t="s" s="2">
         <v>80</v>
@@ -21665,18 +21644,18 @@
         <v>80</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>607</v>
+        <v>171</v>
       </c>
       <c r="AM158" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN158" t="s" s="2">
-        <v>608</v>
+        <v>80</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>849</v>
+        <v>858</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -21699,17 +21678,19 @@
         <v>89</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>90</v>
+        <v>592</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>851</v>
-      </c>
-      <c r="M159" s="2"/>
+        <v>853</v>
+      </c>
+      <c r="M159" t="s" s="2">
+        <v>594</v>
+      </c>
       <c r="N159" t="s" s="2">
-        <v>612</v>
+        <v>595</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>80</v>
@@ -21758,7 +21739,7 @@
         <v>80</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>614</v>
+        <v>596</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>78</v>
@@ -21779,18 +21760,18 @@
         <v>80</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN159" t="s" s="2">
-        <v>616</v>
+        <v>598</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>852</v>
+        <v>859</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -21807,30 +21788,32 @@
         <v>80</v>
       </c>
       <c r="H160" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I160" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>853</v>
+        <v>600</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>854</v>
+        <v>601</v>
       </c>
       <c r="M160" s="2"/>
       <c r="N160" t="s" s="2">
-        <v>620</v>
+        <v>602</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P160" s="2"/>
+      <c r="P160" t="s" s="2">
+        <v>603</v>
+      </c>
       <c r="Q160" t="s" s="2">
-        <v>621</v>
+        <v>80</v>
       </c>
       <c r="R160" t="s" s="2">
         <v>80</v>
@@ -21848,13 +21831,13 @@
         <v>80</v>
       </c>
       <c r="W160" t="s" s="2">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="X160" t="s" s="2">
-        <v>80</v>
+        <v>604</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>80</v>
+        <v>605</v>
       </c>
       <c r="Z160" t="s" s="2">
         <v>80</v>
@@ -21872,7 +21855,7 @@
         <v>80</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>78</v>
@@ -21881,7 +21864,7 @@
         <v>88</v>
       </c>
       <c r="AH160" t="s" s="2">
-        <v>623</v>
+        <v>80</v>
       </c>
       <c r="AI160" t="s" s="2">
         <v>100</v>
@@ -21893,18 +21876,18 @@
         <v>80</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>624</v>
+        <v>607</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN160" t="s" s="2">
-        <v>616</v>
+        <v>608</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -21927,19 +21910,17 @@
         <v>89</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>857</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>628</v>
-      </c>
+        <v>862</v>
+      </c>
+      <c r="M161" s="2"/>
       <c r="N161" t="s" s="2">
-        <v>629</v>
+        <v>612</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>80</v>
@@ -21988,7 +21969,7 @@
         <v>80</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>631</v>
+        <v>614</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>78</v>
@@ -22009,7 +21990,7 @@
         <v>80</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>632</v>
+        <v>615</v>
       </c>
       <c r="AM161" t="s" s="2">
         <v>80</v>
@@ -22020,7 +22001,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -22043,22 +22024,24 @@
         <v>89</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>841</v>
+        <v>102</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="M162" s="2"/>
-      <c r="N162" s="2"/>
+      <c r="N162" t="s" s="2">
+        <v>620</v>
+      </c>
       <c r="O162" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P162" s="2"/>
       <c r="Q162" t="s" s="2">
-        <v>80</v>
+        <v>621</v>
       </c>
       <c r="R162" t="s" s="2">
         <v>80</v>
@@ -22100,7 +22083,7 @@
         <v>80</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>860</v>
+        <v>622</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>78</v>
@@ -22109,7 +22092,7 @@
         <v>88</v>
       </c>
       <c r="AH162" t="s" s="2">
-        <v>80</v>
+        <v>623</v>
       </c>
       <c r="AI162" t="s" s="2">
         <v>100</v>
@@ -22121,18 +22104,18 @@
         <v>80</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>861</v>
+        <v>624</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN162" t="s" s="2">
-        <v>80</v>
+        <v>616</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -22152,19 +22135,23 @@
         <v>80</v>
       </c>
       <c r="I163" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>168</v>
+        <v>850</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M163" s="2"/>
-      <c r="N163" s="2"/>
+        <v>851</v>
+      </c>
+      <c r="M163" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="N163" t="s" s="2">
+        <v>629</v>
+      </c>
       <c r="O163" t="s" s="2">
         <v>80</v>
       </c>
@@ -22212,7 +22199,7 @@
         <v>80</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>170</v>
+        <v>631</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>78</v>
@@ -22224,7 +22211,7 @@
         <v>80</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>80</v>
@@ -22233,29 +22220,31 @@
         <v>80</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>171</v>
+        <v>632</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN163" t="s" s="2">
-        <v>80</v>
+        <v>616</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>863</v>
-      </c>
-      <c r="B164" s="2"/>
+        <v>818</v>
+      </c>
+      <c r="B164" t="s" s="2">
+        <v>867</v>
+      </c>
       <c r="C164" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F164" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G164" t="s" s="2">
         <v>80</v>
@@ -22267,18 +22256,20 @@
         <v>80</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>133</v>
+        <v>807</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>173</v>
+        <v>808</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>174</v>
+        <v>809</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N164" s="2"/>
+        <v>810</v>
+      </c>
+      <c r="N164" t="s" s="2">
+        <v>821</v>
+      </c>
       <c r="O164" t="s" s="2">
         <v>80</v>
       </c>
@@ -22314,31 +22305,31 @@
         <v>80</v>
       </c>
       <c r="AA164" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB164" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AC164" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD164" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>176</v>
+        <v>822</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH164" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>139</v>
+        <v>811</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>80</v>
@@ -22347,20 +22338,22 @@
         <v>80</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>171</v>
+        <v>812</v>
       </c>
       <c r="AM164" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN164" t="s" s="2">
-        <v>80</v>
+        <v>813</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>864</v>
-      </c>
-      <c r="B165" s="2"/>
+        <v>818</v>
+      </c>
+      <c r="B165" t="s" s="2">
+        <v>868</v>
+      </c>
       <c r="C165" t="s" s="2">
         <v>80</v>
       </c>
@@ -22378,22 +22371,22 @@
         <v>80</v>
       </c>
       <c r="I165" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>592</v>
+        <v>815</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>859</v>
+        <v>816</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>859</v>
+        <v>816</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>594</v>
+        <v>817</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>595</v>
+        <v>821</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>80</v>
@@ -22442,7 +22435,7 @@
         <v>80</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>596</v>
+        <v>822</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>78</v>
@@ -22451,10 +22444,10 @@
         <v>88</v>
       </c>
       <c r="AH165" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>100</v>
+        <v>803</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>80</v>
@@ -22463,18 +22456,18 @@
         <v>80</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>597</v>
+        <v>804</v>
       </c>
       <c r="AM165" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN165" t="s" s="2">
-        <v>598</v>
+        <v>805</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -22485,36 +22478,36 @@
         <v>78</v>
       </c>
       <c r="F166" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G166" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H166" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I166" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>108</v>
+        <v>870</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>600</v>
+        <v>871</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="M166" s="2"/>
+        <v>827</v>
+      </c>
+      <c r="M166" t="s" s="2">
+        <v>872</v>
+      </c>
       <c r="N166" t="s" s="2">
-        <v>602</v>
+        <v>873</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P166" t="s" s="2">
-        <v>603</v>
-      </c>
+      <c r="P166" s="2"/>
       <c r="Q166" t="s" s="2">
         <v>80</v>
       </c>
@@ -22534,13 +22527,13 @@
         <v>80</v>
       </c>
       <c r="W166" t="s" s="2">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="X166" t="s" s="2">
-        <v>604</v>
+        <v>80</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>605</v>
+        <v>80</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>80</v>
@@ -22558,7 +22551,7 @@
         <v>80</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>606</v>
+        <v>874</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>78</v>
@@ -22567,10 +22560,10 @@
         <v>88</v>
       </c>
       <c r="AH166" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>100</v>
+        <v>830</v>
       </c>
       <c r="AJ166" t="s" s="2">
         <v>80</v>
@@ -22579,18 +22572,18 @@
         <v>80</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>607</v>
+        <v>831</v>
       </c>
       <c r="AM166" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN166" t="s" s="2">
-        <v>608</v>
+        <v>131</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>866</v>
+        <v>875</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -22610,20 +22603,22 @@
         <v>80</v>
       </c>
       <c r="I167" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>90</v>
+        <v>815</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>867</v>
+        <v>816</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>868</v>
-      </c>
-      <c r="M167" s="2"/>
+        <v>816</v>
+      </c>
+      <c r="M167" t="s" s="2">
+        <v>817</v>
+      </c>
       <c r="N167" t="s" s="2">
-        <v>612</v>
+        <v>876</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>80</v>
@@ -22672,7 +22667,7 @@
         <v>80</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>614</v>
+        <v>877</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>78</v>
@@ -22681,10 +22676,10 @@
         <v>88</v>
       </c>
       <c r="AH167" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>100</v>
+        <v>803</v>
       </c>
       <c r="AJ167" t="s" s="2">
         <v>80</v>
@@ -22693,18 +22688,18 @@
         <v>80</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>615</v>
+        <v>804</v>
       </c>
       <c r="AM167" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN167" t="s" s="2">
-        <v>616</v>
+        <v>805</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -22724,27 +22719,29 @@
         <v>80</v>
       </c>
       <c r="I168" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>102</v>
+        <v>815</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="L168" t="s" s="2">
         <v>816</v>
       </c>
-      <c r="M168" s="2"/>
+      <c r="M168" t="s" s="2">
+        <v>817</v>
+      </c>
       <c r="N168" t="s" s="2">
-        <v>620</v>
+        <v>879</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P168" s="2"/>
       <c r="Q168" t="s" s="2">
-        <v>621</v>
+        <v>80</v>
       </c>
       <c r="R168" t="s" s="2">
         <v>80</v>
@@ -22786,7 +22783,7 @@
         <v>80</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>622</v>
+        <v>880</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>78</v>
@@ -22795,10 +22792,10 @@
         <v>88</v>
       </c>
       <c r="AH168" t="s" s="2">
-        <v>623</v>
+        <v>144</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>100</v>
+        <v>803</v>
       </c>
       <c r="AJ168" t="s" s="2">
         <v>80</v>
@@ -22807,18 +22804,18 @@
         <v>80</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>624</v>
+        <v>804</v>
       </c>
       <c r="AM168" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN168" t="s" s="2">
-        <v>616</v>
+        <v>805</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>870</v>
+        <v>881</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -22838,23 +22835,19 @@
         <v>80</v>
       </c>
       <c r="I169" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>108</v>
+        <v>882</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>856</v>
+        <v>883</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>857</v>
-      </c>
-      <c r="M169" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="N169" t="s" s="2">
-        <v>629</v>
-      </c>
+        <v>884</v>
+      </c>
+      <c r="M169" s="2"/>
+      <c r="N169" s="2"/>
       <c r="O169" t="s" s="2">
         <v>80</v>
       </c>
@@ -22902,7 +22895,7 @@
         <v>80</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>631</v>
+        <v>881</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>78</v>
@@ -22920,25 +22913,23 @@
         <v>80</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>80</v>
+        <v>885</v>
       </c>
       <c r="AL169" t="s" s="2">
-        <v>632</v>
+        <v>886</v>
       </c>
       <c r="AM169" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN169" t="s" s="2">
-        <v>616</v>
+        <v>80</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>830</v>
-      </c>
-      <c r="B170" t="s" s="2">
-        <v>871</v>
-      </c>
+        <v>887</v>
+      </c>
+      <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
         <v>80</v>
       </c>
@@ -22959,20 +22950,16 @@
         <v>80</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>872</v>
+        <v>90</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>873</v>
+        <v>888</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>874</v>
-      </c>
-      <c r="M170" t="s" s="2">
-        <v>875</v>
-      </c>
-      <c r="N170" t="s" s="2">
-        <v>876</v>
-      </c>
+        <v>889</v>
+      </c>
+      <c r="M170" s="2"/>
+      <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
         <v>80</v>
       </c>
@@ -23020,7 +23007,7 @@
         <v>80</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>835</v>
+        <v>170</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>78</v>
@@ -23029,10 +23016,10 @@
         <v>88</v>
       </c>
       <c r="AH170" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AI170" t="s" s="2">
-        <v>877</v>
+        <v>80</v>
       </c>
       <c r="AJ170" t="s" s="2">
         <v>80</v>
@@ -23041,22 +23028,20 @@
         <v>80</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>878</v>
+        <v>171</v>
       </c>
       <c r="AM170" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN170" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>830</v>
-      </c>
-      <c r="B171" t="s" s="2">
-        <v>879</v>
-      </c>
+        <v>890</v>
+      </c>
+      <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
         <v>80</v>
       </c>
@@ -23065,7 +23050,7 @@
         <v>78</v>
       </c>
       <c r="F171" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G171" t="s" s="2">
         <v>80</v>
@@ -23077,20 +23062,16 @@
         <v>80</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>819</v>
+        <v>133</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>820</v>
+        <v>134</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>821</v>
-      </c>
-      <c r="M171" t="s" s="2">
-        <v>822</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>876</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M171" s="2"/>
+      <c r="N171" s="2"/>
       <c r="O171" t="s" s="2">
         <v>80</v>
       </c>
@@ -23126,31 +23107,29 @@
         <v>80</v>
       </c>
       <c r="AA171" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB171" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AB171" s="2"/>
       <c r="AC171" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD171" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>835</v>
+        <v>176</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH171" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>823</v>
+        <v>139</v>
       </c>
       <c r="AJ171" t="s" s="2">
         <v>80</v>
@@ -23159,21 +23138,21 @@
         <v>80</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>824</v>
+        <v>80</v>
       </c>
       <c r="AM171" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN171" t="s" s="2">
-        <v>825</v>
+        <v>80</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>830</v>
+        <v>890</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>880</v>
+        <v>891</v>
       </c>
       <c r="C172" t="s" s="2">
         <v>80</v>
@@ -23183,7 +23162,7 @@
         <v>78</v>
       </c>
       <c r="F172" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G172" t="s" s="2">
         <v>80</v>
@@ -23195,20 +23174,16 @@
         <v>80</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>827</v>
+        <v>892</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>828</v>
+        <v>893</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>828</v>
-      </c>
-      <c r="M172" t="s" s="2">
-        <v>829</v>
-      </c>
-      <c r="N172" t="s" s="2">
-        <v>876</v>
-      </c>
+        <v>894</v>
+      </c>
+      <c r="M172" s="2"/>
+      <c r="N172" s="2"/>
       <c r="O172" t="s" s="2">
         <v>80</v>
       </c>
@@ -23256,19 +23231,19 @@
         <v>80</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>835</v>
+        <v>176</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>144</v>
       </c>
       <c r="AI172" t="s" s="2">
-        <v>803</v>
+        <v>139</v>
       </c>
       <c r="AJ172" t="s" s="2">
         <v>80</v>
@@ -23277,18 +23252,18 @@
         <v>80</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>804</v>
+        <v>80</v>
       </c>
       <c r="AM172" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN172" t="s" s="2">
-        <v>805</v>
+        <v>80</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>881</v>
+        <v>895</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -23299,7 +23274,7 @@
         <v>78</v>
       </c>
       <c r="F173" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G173" t="s" s="2">
         <v>80</v>
@@ -23311,20 +23286,16 @@
         <v>80</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>872</v>
+        <v>90</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>873</v>
+        <v>168</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>874</v>
-      </c>
-      <c r="M173" t="s" s="2">
-        <v>875</v>
-      </c>
-      <c r="N173" t="s" s="2">
-        <v>882</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="M173" s="2"/>
+      <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
         <v>80</v>
       </c>
@@ -23372,7 +23343,7 @@
         <v>80</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>883</v>
+        <v>170</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>78</v>
@@ -23381,10 +23352,10 @@
         <v>88</v>
       </c>
       <c r="AH173" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>877</v>
+        <v>80</v>
       </c>
       <c r="AJ173" t="s" s="2">
         <v>80</v>
@@ -23393,18 +23364,18 @@
         <v>80</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>878</v>
+        <v>171</v>
       </c>
       <c r="AM173" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN173" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -23415,7 +23386,7 @@
         <v>78</v>
       </c>
       <c r="F174" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G174" t="s" s="2">
         <v>80</v>
@@ -23427,20 +23398,16 @@
         <v>80</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>827</v>
+        <v>133</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>828</v>
+        <v>134</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>828</v>
-      </c>
-      <c r="M174" t="s" s="2">
-        <v>829</v>
-      </c>
-      <c r="N174" t="s" s="2">
-        <v>885</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M174" s="2"/>
+      <c r="N174" s="2"/>
       <c r="O174" t="s" s="2">
         <v>80</v>
       </c>
@@ -23476,31 +23443,31 @@
         <v>80</v>
       </c>
       <c r="AA174" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB174" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AC174" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD174" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>886</v>
+        <v>176</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH174" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>803</v>
+        <v>139</v>
       </c>
       <c r="AJ174" t="s" s="2">
         <v>80</v>
@@ -23509,18 +23476,18 @@
         <v>80</v>
       </c>
       <c r="AL174" t="s" s="2">
-        <v>804</v>
+        <v>80</v>
       </c>
       <c r="AM174" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN174" t="s" s="2">
-        <v>805</v>
+        <v>80</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>887</v>
+        <v>897</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -23528,7 +23495,7 @@
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F175" t="s" s="2">
         <v>88</v>
@@ -23543,26 +23510,24 @@
         <v>80</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>827</v>
+        <v>102</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>828</v>
+        <v>898</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>828</v>
+        <v>899</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>829</v>
-      </c>
-      <c r="N175" t="s" s="2">
-        <v>888</v>
-      </c>
+        <v>900</v>
+      </c>
+      <c r="N175" s="2"/>
       <c r="O175" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P175" s="2"/>
       <c r="Q175" t="s" s="2">
-        <v>80</v>
+        <v>901</v>
       </c>
       <c r="R175" t="s" s="2">
         <v>80</v>
@@ -23604,19 +23569,19 @@
         <v>80</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>889</v>
+        <v>902</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH175" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>803</v>
+        <v>80</v>
       </c>
       <c r="AJ175" t="s" s="2">
         <v>80</v>
@@ -23625,18 +23590,18 @@
         <v>80</v>
       </c>
       <c r="AL175" t="s" s="2">
-        <v>804</v>
+        <v>131</v>
       </c>
       <c r="AM175" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN175" t="s" s="2">
-        <v>805</v>
+        <v>80</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>890</v>
+        <v>903</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -23659,13 +23624,13 @@
         <v>80</v>
       </c>
       <c r="J176" t="s" s="2">
-        <v>891</v>
+        <v>188</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>893</v>
+        <v>904</v>
       </c>
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
@@ -23704,19 +23669,17 @@
         <v>80</v>
       </c>
       <c r="AA176" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB176" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="AB176" s="2"/>
       <c r="AC176" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD176" t="s" s="2">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>890</v>
+        <v>905</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>78</v>
@@ -23734,10 +23697,10 @@
         <v>80</v>
       </c>
       <c r="AK176" t="s" s="2">
-        <v>894</v>
+        <v>80</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>895</v>
+        <v>131</v>
       </c>
       <c r="AM176" t="s" s="2">
         <v>80</v>
@@ -23748,9 +23711,11 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>896</v>
-      </c>
-      <c r="B177" s="2"/>
+        <v>903</v>
+      </c>
+      <c r="B177" t="s" s="2">
+        <v>906</v>
+      </c>
       <c r="C177" t="s" s="2">
         <v>80</v>
       </c>
@@ -23771,13 +23736,13 @@
         <v>80</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>897</v>
+        <v>907</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>898</v>
+        <v>908</v>
       </c>
       <c r="M177" s="2"/>
       <c r="N177" s="2"/>
@@ -23828,7 +23793,7 @@
         <v>80</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>170</v>
+        <v>905</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>78</v>
@@ -23840,7 +23805,7 @@
         <v>80</v>
       </c>
       <c r="AI177" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ177" t="s" s="2">
         <v>80</v>
@@ -23849,7 +23814,7 @@
         <v>80</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="AM177" t="s" s="2">
         <v>80</v>
@@ -23860,7 +23825,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23871,7 +23836,7 @@
         <v>78</v>
       </c>
       <c r="F178" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G178" t="s" s="2">
         <v>80</v>
@@ -23883,13 +23848,13 @@
         <v>80</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="M178" s="2"/>
       <c r="N178" s="2"/>
@@ -23928,29 +23893,31 @@
         <v>80</v>
       </c>
       <c r="AA178" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AB178" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AB178" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AC178" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD178" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AJ178" t="s" s="2">
         <v>80</v>
@@ -23959,7 +23926,7 @@
         <v>80</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="AM178" t="s" s="2">
         <v>80</v>
@@ -23970,13 +23937,11 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>899</v>
-      </c>
-      <c r="B179" t="s" s="2">
-        <v>900</v>
-      </c>
+        <v>910</v>
+      </c>
+      <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
@@ -23995,15 +23960,17 @@
         <v>80</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>901</v>
+        <v>133</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>902</v>
+        <v>173</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>903</v>
-      </c>
-      <c r="M179" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="M179" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N179" s="2"/>
       <c r="O179" t="s" s="2">
         <v>80</v>
@@ -24040,16 +24007,16 @@
         <v>80</v>
       </c>
       <c r="AA179" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB179" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AC179" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD179" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE179" t="s" s="2">
         <v>176</v>
@@ -24061,7 +24028,7 @@
         <v>79</v>
       </c>
       <c r="AH179" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AI179" t="s" s="2">
         <v>139</v>
@@ -24073,7 +24040,7 @@
         <v>80</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="AM179" t="s" s="2">
         <v>80</v>
@@ -24084,7 +24051,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -24095,7 +24062,7 @@
         <v>78</v>
       </c>
       <c r="F180" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G180" t="s" s="2">
         <v>80</v>
@@ -24104,19 +24071,23 @@
         <v>80</v>
       </c>
       <c r="I180" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>90</v>
+        <v>317</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>168</v>
+        <v>757</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M180" s="2"/>
-      <c r="N180" s="2"/>
+        <v>758</v>
+      </c>
+      <c r="M180" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="N180" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="O180" t="s" s="2">
         <v>80</v>
       </c>
@@ -24140,13 +24111,11 @@
         <v>80</v>
       </c>
       <c r="W180" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X180" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X180" s="2"/>
       <c r="Y180" t="s" s="2">
-        <v>80</v>
+        <v>912</v>
       </c>
       <c r="Z180" t="s" s="2">
         <v>80</v>
@@ -24164,19 +24133,19 @@
         <v>80</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>170</v>
+        <v>322</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG180" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH180" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ180" t="s" s="2">
         <v>80</v>
@@ -24185,18 +24154,18 @@
         <v>80</v>
       </c>
       <c r="AL180" t="s" s="2">
-        <v>171</v>
+        <v>323</v>
       </c>
       <c r="AM180" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN180" t="s" s="2">
-        <v>80</v>
+        <v>324</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>905</v>
+        <v>913</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -24207,7 +24176,7 @@
         <v>78</v>
       </c>
       <c r="F181" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G181" t="s" s="2">
         <v>80</v>
@@ -24216,19 +24185,23 @@
         <v>80</v>
       </c>
       <c r="I181" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>134</v>
+        <v>914</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M181" s="2"/>
-      <c r="N181" s="2"/>
+        <v>915</v>
+      </c>
+      <c r="M181" t="s" s="2">
+        <v>916</v>
+      </c>
+      <c r="N181" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O181" t="s" s="2">
         <v>80</v>
       </c>
@@ -24264,31 +24237,31 @@
         <v>80</v>
       </c>
       <c r="AA181" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB181" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AC181" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD181" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>176</v>
+        <v>368</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG181" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH181" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI181" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ181" t="s" s="2">
         <v>80</v>
@@ -24297,26 +24270,28 @@
         <v>80</v>
       </c>
       <c r="AL181" t="s" s="2">
-        <v>80</v>
+        <v>369</v>
       </c>
       <c r="AM181" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN181" t="s" s="2">
-        <v>80</v>
+        <v>370</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>906</v>
-      </c>
-      <c r="B182" s="2"/>
+        <v>890</v>
+      </c>
+      <c r="B182" t="s" s="2">
+        <v>917</v>
+      </c>
       <c r="C182" t="s" s="2">
         <v>80</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F182" t="s" s="2">
         <v>88</v>
@@ -24331,24 +24306,22 @@
         <v>80</v>
       </c>
       <c r="J182" t="s" s="2">
-        <v>102</v>
+        <v>918</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>907</v>
+        <v>919</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>908</v>
-      </c>
-      <c r="M182" t="s" s="2">
-        <v>909</v>
-      </c>
+        <v>919</v>
+      </c>
+      <c r="M182" s="2"/>
       <c r="N182" s="2"/>
       <c r="O182" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P182" s="2"/>
       <c r="Q182" t="s" s="2">
-        <v>910</v>
+        <v>80</v>
       </c>
       <c r="R182" t="s" s="2">
         <v>80</v>
@@ -24390,19 +24363,19 @@
         <v>80</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>911</v>
+        <v>176</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG182" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH182" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AI182" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AJ182" t="s" s="2">
         <v>80</v>
@@ -24411,7 +24384,7 @@
         <v>80</v>
       </c>
       <c r="AL182" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM182" t="s" s="2">
         <v>80</v>
@@ -24422,39 +24395,43 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>912</v>
+        <v>920</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
-        <v>80</v>
+        <v>520</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F183" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G183" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H183" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I183" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>902</v>
+        <v>521</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>913</v>
-      </c>
-      <c r="M183" s="2"/>
-      <c r="N183" s="2"/>
+        <v>522</v>
+      </c>
+      <c r="M183" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N183" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O183" t="s" s="2">
         <v>80</v>
       </c>
@@ -24490,29 +24467,31 @@
         <v>80</v>
       </c>
       <c r="AA183" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AB183" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AB183" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AC183" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD183" t="s" s="2">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>914</v>
+        <v>523</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG183" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH183" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ183" t="s" s="2">
         <v>80</v>
@@ -24532,11 +24511,9 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>912</v>
-      </c>
-      <c r="B184" t="s" s="2">
-        <v>915</v>
-      </c>
+        <v>921</v>
+      </c>
+      <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
         <v>80</v>
       </c>
@@ -24557,15 +24534,17 @@
         <v>80</v>
       </c>
       <c r="J184" t="s" s="2">
-        <v>188</v>
+        <v>882</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>917</v>
-      </c>
-      <c r="M184" s="2"/>
+        <v>923</v>
+      </c>
+      <c r="M184" t="s" s="2">
+        <v>924</v>
+      </c>
       <c r="N184" s="2"/>
       <c r="O184" t="s" s="2">
         <v>80</v>
@@ -24614,7 +24593,7 @@
         <v>80</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>914</v>
+        <v>921</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>78</v>
@@ -24635,7 +24614,7 @@
         <v>80</v>
       </c>
       <c r="AL184" t="s" s="2">
-        <v>131</v>
+        <v>925</v>
       </c>
       <c r="AM184" t="s" s="2">
         <v>80</v>
@@ -24646,7 +24625,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>918</v>
+        <v>926</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -24758,7 +24737,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>919</v>
+        <v>927</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -24828,16 +24807,16 @@
         <v>80</v>
       </c>
       <c r="AA186" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB186" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AC186" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD186" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE186" t="s" s="2">
         <v>176</v>
@@ -24872,11 +24851,11 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>920</v>
+        <v>928</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
-        <v>80</v>
+        <v>520</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" t="s" s="2">
@@ -24889,25 +24868,25 @@
         <v>80</v>
       </c>
       <c r="H187" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I187" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>317</v>
+        <v>133</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>757</v>
+        <v>521</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>758</v>
+        <v>522</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>759</v>
+        <v>149</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>321</v>
+        <v>150</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>80</v>
@@ -24932,11 +24911,13 @@
         <v>80</v>
       </c>
       <c r="W187" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="X187" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="X187" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Y187" t="s" s="2">
-        <v>921</v>
+        <v>80</v>
       </c>
       <c r="Z187" t="s" s="2">
         <v>80</v>
@@ -24954,7 +24935,7 @@
         <v>80</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>322</v>
+        <v>523</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>78</v>
@@ -24966,7 +24947,7 @@
         <v>80</v>
       </c>
       <c r="AI187" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ187" t="s" s="2">
         <v>80</v>
@@ -24975,18 +24956,18 @@
         <v>80</v>
       </c>
       <c r="AL187" t="s" s="2">
-        <v>323</v>
+        <v>131</v>
       </c>
       <c r="AM187" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN187" t="s" s="2">
-        <v>324</v>
+        <v>80</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>922</v>
+        <v>929</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -25006,23 +24987,21 @@
         <v>80</v>
       </c>
       <c r="I188" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>90</v>
+        <v>815</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>923</v>
+        <v>930</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>925</v>
-      </c>
-      <c r="N188" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>932</v>
+      </c>
+      <c r="N188" s="2"/>
       <c r="O188" t="s" s="2">
         <v>80</v>
       </c>
@@ -25070,7 +25049,7 @@
         <v>80</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>368</v>
+        <v>929</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>78</v>
@@ -25079,10 +25058,10 @@
         <v>88</v>
       </c>
       <c r="AH188" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>100</v>
+        <v>803</v>
       </c>
       <c r="AJ188" t="s" s="2">
         <v>80</v>
@@ -25091,22 +25070,20 @@
         <v>80</v>
       </c>
       <c r="AL188" t="s" s="2">
-        <v>369</v>
+        <v>804</v>
       </c>
       <c r="AM188" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN188" t="s" s="2">
-        <v>370</v>
+        <v>805</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>899</v>
-      </c>
-      <c r="B189" t="s" s="2">
-        <v>926</v>
-      </c>
+        <v>933</v>
+      </c>
+      <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
         <v>80</v>
       </c>
@@ -25127,15 +25104,17 @@
         <v>80</v>
       </c>
       <c r="J189" t="s" s="2">
-        <v>927</v>
+        <v>586</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>928</v>
-      </c>
-      <c r="M189" s="2"/>
+        <v>935</v>
+      </c>
+      <c r="M189" t="s" s="2">
+        <v>932</v>
+      </c>
       <c r="N189" s="2"/>
       <c r="O189" t="s" s="2">
         <v>80</v>
@@ -25184,19 +25163,19 @@
         <v>80</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>176</v>
+        <v>933</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG189" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH189" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AI189" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ189" t="s" s="2">
         <v>80</v>
@@ -25205,7 +25184,7 @@
         <v>80</v>
       </c>
       <c r="AL189" t="s" s="2">
-        <v>80</v>
+        <v>936</v>
       </c>
       <c r="AM189" t="s" s="2">
         <v>80</v>
@@ -25216,43 +25195,41 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>929</v>
+        <v>937</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
-        <v>520</v>
+        <v>80</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F190" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G190" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H190" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I190" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J190" t="s" s="2">
-        <v>133</v>
+        <v>586</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>521</v>
+        <v>938</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>522</v>
+        <v>939</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N190" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>932</v>
+      </c>
+      <c r="N190" s="2"/>
       <c r="O190" t="s" s="2">
         <v>80</v>
       </c>
@@ -25300,19 +25277,19 @@
         <v>80</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>523</v>
+        <v>937</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG190" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH190" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI190" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ190" t="s" s="2">
         <v>80</v>
@@ -25321,7 +25298,7 @@
         <v>80</v>
       </c>
       <c r="AL190" t="s" s="2">
-        <v>131</v>
+        <v>936</v>
       </c>
       <c r="AM190" t="s" s="2">
         <v>80</v>
@@ -25332,7 +25309,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -25355,18 +25332,20 @@
         <v>80</v>
       </c>
       <c r="J191" t="s" s="2">
-        <v>891</v>
+        <v>217</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>931</v>
+        <v>941</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>932</v>
+        <v>942</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>933</v>
-      </c>
-      <c r="N191" s="2"/>
+        <v>943</v>
+      </c>
+      <c r="N191" t="s" s="2">
+        <v>944</v>
+      </c>
       <c r="O191" t="s" s="2">
         <v>80</v>
       </c>
@@ -25414,7 +25393,7 @@
         <v>80</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>78</v>
@@ -25432,10 +25411,10 @@
         <v>80</v>
       </c>
       <c r="AK191" t="s" s="2">
-        <v>80</v>
+        <v>945</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>934</v>
+        <v>946</v>
       </c>
       <c r="AM191" t="s" s="2">
         <v>80</v>
@@ -25446,7 +25425,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>935</v>
+        <v>947</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -25558,7 +25537,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>936</v>
+        <v>948</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -25628,16 +25607,16 @@
         <v>80</v>
       </c>
       <c r="AA193" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB193" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AC193" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD193" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE193" t="s" s="2">
         <v>176</v>
@@ -25672,43 +25651,41 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>937</v>
+        <v>949</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
-        <v>520</v>
+        <v>80</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F194" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G194" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H194" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I194" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J194" t="s" s="2">
-        <v>133</v>
+        <v>400</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>521</v>
+        <v>950</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>522</v>
+        <v>951</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N194" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>952</v>
+      </c>
+      <c r="N194" s="2"/>
       <c r="O194" t="s" s="2">
         <v>80</v>
       </c>
@@ -25756,19 +25733,19 @@
         <v>80</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>523</v>
+        <v>953</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG194" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH194" t="s" s="2">
-        <v>80</v>
+        <v>954</v>
       </c>
       <c r="AI194" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ194" t="s" s="2">
         <v>80</v>
@@ -25777,18 +25754,18 @@
         <v>80</v>
       </c>
       <c r="AL194" t="s" s="2">
-        <v>131</v>
+        <v>955</v>
       </c>
       <c r="AM194" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN194" t="s" s="2">
-        <v>80</v>
+        <v>956</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>938</v>
+        <v>957</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -25808,25 +25785,27 @@
         <v>80</v>
       </c>
       <c r="I195" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J195" t="s" s="2">
-        <v>827</v>
+        <v>400</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>939</v>
+        <v>958</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>940</v>
+        <v>959</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>941</v>
+        <v>960</v>
       </c>
       <c r="N195" s="2"/>
       <c r="O195" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P195" s="2"/>
+      <c r="P195" t="s" s="2">
+        <v>961</v>
+      </c>
       <c r="Q195" t="s" s="2">
         <v>80</v>
       </c>
@@ -25870,7 +25849,7 @@
         <v>80</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>938</v>
+        <v>962</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>78</v>
@@ -25879,10 +25858,10 @@
         <v>88</v>
       </c>
       <c r="AH195" t="s" s="2">
-        <v>144</v>
+        <v>954</v>
       </c>
       <c r="AI195" t="s" s="2">
-        <v>803</v>
+        <v>100</v>
       </c>
       <c r="AJ195" t="s" s="2">
         <v>80</v>
@@ -25891,18 +25870,18 @@
         <v>80</v>
       </c>
       <c r="AL195" t="s" s="2">
-        <v>804</v>
+        <v>963</v>
       </c>
       <c r="AM195" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN195" t="s" s="2">
-        <v>805</v>
+        <v>964</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>942</v>
+        <v>965</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -25925,16 +25904,16 @@
         <v>80</v>
       </c>
       <c r="J196" t="s" s="2">
-        <v>586</v>
+        <v>709</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>943</v>
+        <v>966</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>944</v>
+        <v>967</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>941</v>
+        <v>968</v>
       </c>
       <c r="N196" s="2"/>
       <c r="O196" t="s" s="2">
@@ -25984,7 +25963,7 @@
         <v>80</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>942</v>
+        <v>965</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>78</v>
@@ -26002,21 +25981,21 @@
         <v>80</v>
       </c>
       <c r="AK196" t="s" s="2">
-        <v>80</v>
+        <v>969</v>
       </c>
       <c r="AL196" t="s" s="2">
-        <v>945</v>
+        <v>970</v>
       </c>
       <c r="AM196" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN196" t="s" s="2">
-        <v>80</v>
+        <v>971</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>946</v>
+        <v>972</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -26039,16 +26018,16 @@
         <v>80</v>
       </c>
       <c r="J197" t="s" s="2">
-        <v>586</v>
+        <v>815</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>947</v>
+        <v>973</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>948</v>
+        <v>974</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" t="s" s="2">
@@ -26098,7 +26077,7 @@
         <v>80</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>946</v>
+        <v>972</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>78</v>
@@ -26107,10 +26086,10 @@
         <v>88</v>
       </c>
       <c r="AH197" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AI197" t="s" s="2">
-        <v>100</v>
+        <v>803</v>
       </c>
       <c r="AJ197" t="s" s="2">
         <v>80</v>
@@ -26119,18 +26098,18 @@
         <v>80</v>
       </c>
       <c r="AL197" t="s" s="2">
-        <v>945</v>
+        <v>804</v>
       </c>
       <c r="AM197" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN197" t="s" s="2">
-        <v>80</v>
+        <v>805</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>949</v>
+        <v>975</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -26153,20 +26132,18 @@
         <v>80</v>
       </c>
       <c r="J198" t="s" s="2">
-        <v>217</v>
+        <v>586</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>950</v>
+        <v>976</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>951</v>
+        <v>977</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>952</v>
-      </c>
-      <c r="N198" t="s" s="2">
-        <v>953</v>
-      </c>
+        <v>978</v>
+      </c>
+      <c r="N198" s="2"/>
       <c r="O198" t="s" s="2">
         <v>80</v>
       </c>
@@ -26214,7 +26191,7 @@
         <v>80</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>949</v>
+        <v>975</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>78</v>
@@ -26232,10 +26209,10 @@
         <v>80</v>
       </c>
       <c r="AK198" t="s" s="2">
-        <v>954</v>
+        <v>979</v>
       </c>
       <c r="AL198" t="s" s="2">
-        <v>955</v>
+        <v>980</v>
       </c>
       <c r="AM198" t="s" s="2">
         <v>80</v>
@@ -26246,7 +26223,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>956</v>
+        <v>981</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -26358,7 +26335,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>957</v>
+        <v>982</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -26472,7 +26449,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>958</v>
+        <v>983</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -26495,18 +26472,20 @@
         <v>89</v>
       </c>
       <c r="J201" t="s" s="2">
-        <v>400</v>
+        <v>592</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>959</v>
+        <v>984</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>960</v>
+        <v>985</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>961</v>
-      </c>
-      <c r="N201" s="2"/>
+        <v>594</v>
+      </c>
+      <c r="N201" t="s" s="2">
+        <v>595</v>
+      </c>
       <c r="O201" t="s" s="2">
         <v>80</v>
       </c>
@@ -26554,7 +26533,7 @@
         <v>80</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>962</v>
+        <v>596</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>78</v>
@@ -26563,7 +26542,7 @@
         <v>88</v>
       </c>
       <c r="AH201" t="s" s="2">
-        <v>963</v>
+        <v>80</v>
       </c>
       <c r="AI201" t="s" s="2">
         <v>100</v>
@@ -26575,18 +26554,18 @@
         <v>80</v>
       </c>
       <c r="AL201" t="s" s="2">
-        <v>964</v>
+        <v>597</v>
       </c>
       <c r="AM201" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN201" t="s" s="2">
-        <v>965</v>
+        <v>598</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>966</v>
+        <v>986</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -26603,29 +26582,29 @@
         <v>80</v>
       </c>
       <c r="H202" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I202" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J202" t="s" s="2">
-        <v>400</v>
+        <v>108</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>967</v>
+        <v>600</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>968</v>
-      </c>
-      <c r="M202" t="s" s="2">
-        <v>969</v>
-      </c>
-      <c r="N202" s="2"/>
+        <v>601</v>
+      </c>
+      <c r="M202" s="2"/>
+      <c r="N202" t="s" s="2">
+        <v>602</v>
+      </c>
       <c r="O202" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P202" t="s" s="2">
-        <v>970</v>
+        <v>603</v>
       </c>
       <c r="Q202" t="s" s="2">
         <v>80</v>
@@ -26646,13 +26625,13 @@
         <v>80</v>
       </c>
       <c r="W202" t="s" s="2">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="X202" t="s" s="2">
-        <v>80</v>
+        <v>604</v>
       </c>
       <c r="Y202" t="s" s="2">
-        <v>80</v>
+        <v>605</v>
       </c>
       <c r="Z202" t="s" s="2">
         <v>80</v>
@@ -26670,7 +26649,7 @@
         <v>80</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>971</v>
+        <v>606</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>78</v>
@@ -26679,7 +26658,7 @@
         <v>88</v>
       </c>
       <c r="AH202" t="s" s="2">
-        <v>963</v>
+        <v>80</v>
       </c>
       <c r="AI202" t="s" s="2">
         <v>100</v>
@@ -26691,18 +26670,18 @@
         <v>80</v>
       </c>
       <c r="AL202" t="s" s="2">
-        <v>972</v>
+        <v>607</v>
       </c>
       <c r="AM202" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN202" t="s" s="2">
-        <v>973</v>
+        <v>608</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>974</v>
+        <v>987</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -26722,27 +26701,27 @@
         <v>80</v>
       </c>
       <c r="I203" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J203" t="s" s="2">
-        <v>709</v>
+        <v>90</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>975</v>
+        <v>988</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>976</v>
-      </c>
-      <c r="M203" t="s" s="2">
-        <v>977</v>
-      </c>
-      <c r="N203" s="2"/>
+        <v>989</v>
+      </c>
+      <c r="M203" s="2"/>
+      <c r="N203" t="s" s="2">
+        <v>612</v>
+      </c>
       <c r="O203" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P203" s="2"/>
       <c r="Q203" t="s" s="2">
-        <v>80</v>
+        <v>613</v>
       </c>
       <c r="R203" t="s" s="2">
         <v>80</v>
@@ -26784,7 +26763,7 @@
         <v>80</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>974</v>
+        <v>614</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>78</v>
@@ -26802,21 +26781,21 @@
         <v>80</v>
       </c>
       <c r="AK203" t="s" s="2">
-        <v>978</v>
+        <v>80</v>
       </c>
       <c r="AL203" t="s" s="2">
-        <v>979</v>
+        <v>615</v>
       </c>
       <c r="AM203" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN203" t="s" s="2">
-        <v>980</v>
+        <v>616</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>981</v>
+        <v>990</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -26836,27 +26815,27 @@
         <v>80</v>
       </c>
       <c r="I204" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J204" t="s" s="2">
-        <v>827</v>
+        <v>102</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>982</v>
+        <v>847</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>983</v>
-      </c>
-      <c r="M204" t="s" s="2">
-        <v>941</v>
-      </c>
-      <c r="N204" s="2"/>
+        <v>848</v>
+      </c>
+      <c r="M204" s="2"/>
+      <c r="N204" t="s" s="2">
+        <v>620</v>
+      </c>
       <c r="O204" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P204" s="2"/>
       <c r="Q204" t="s" s="2">
-        <v>80</v>
+        <v>621</v>
       </c>
       <c r="R204" t="s" s="2">
         <v>80</v>
@@ -26898,7 +26877,7 @@
         <v>80</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>981</v>
+        <v>622</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>78</v>
@@ -26907,10 +26886,10 @@
         <v>88</v>
       </c>
       <c r="AH204" t="s" s="2">
-        <v>144</v>
+        <v>623</v>
       </c>
       <c r="AI204" t="s" s="2">
-        <v>803</v>
+        <v>100</v>
       </c>
       <c r="AJ204" t="s" s="2">
         <v>80</v>
@@ -26919,18 +26898,18 @@
         <v>80</v>
       </c>
       <c r="AL204" t="s" s="2">
-        <v>804</v>
+        <v>624</v>
       </c>
       <c r="AM204" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN204" t="s" s="2">
-        <v>805</v>
+        <v>616</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>984</v>
+        <v>991</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -26950,27 +26929,29 @@
         <v>80</v>
       </c>
       <c r="I205" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J205" t="s" s="2">
-        <v>586</v>
+        <v>108</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>985</v>
+        <v>850</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>986</v>
+        <v>851</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>987</v>
-      </c>
-      <c r="N205" s="2"/>
+        <v>628</v>
+      </c>
+      <c r="N205" t="s" s="2">
+        <v>629</v>
+      </c>
       <c r="O205" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P205" s="2"/>
       <c r="Q205" t="s" s="2">
-        <v>80</v>
+        <v>630</v>
       </c>
       <c r="R205" t="s" s="2">
         <v>80</v>
@@ -27012,7 +26993,7 @@
         <v>80</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>984</v>
+        <v>631</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>78</v>
@@ -27030,21 +27011,21 @@
         <v>80</v>
       </c>
       <c r="AK205" t="s" s="2">
-        <v>988</v>
+        <v>80</v>
       </c>
       <c r="AL205" t="s" s="2">
-        <v>989</v>
+        <v>632</v>
       </c>
       <c r="AM205" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN205" t="s" s="2">
-        <v>80</v>
+        <v>616</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -27067,15 +27048,17 @@
         <v>80</v>
       </c>
       <c r="J206" t="s" s="2">
-        <v>90</v>
+        <v>993</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>168</v>
+        <v>994</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M206" s="2"/>
+        <v>995</v>
+      </c>
+      <c r="M206" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="N206" s="2"/>
       <c r="O206" t="s" s="2">
         <v>80</v>
@@ -27124,7 +27107,7 @@
         <v>80</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>170</v>
+        <v>992</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>78</v>
@@ -27136,7 +27119,7 @@
         <v>80</v>
       </c>
       <c r="AI206" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ206" t="s" s="2">
         <v>80</v>
@@ -27145,10 +27128,10 @@
         <v>80</v>
       </c>
       <c r="AL206" t="s" s="2">
-        <v>171</v>
+        <v>996</v>
       </c>
       <c r="AM206" t="s" s="2">
-        <v>80</v>
+        <v>433</v>
       </c>
       <c r="AN206" t="s" s="2">
         <v>80</v>
@@ -27156,18 +27139,18 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F207" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G207" t="s" s="2">
         <v>80</v>
@@ -27179,17 +27162,15 @@
         <v>80</v>
       </c>
       <c r="J207" t="s" s="2">
-        <v>133</v>
+        <v>882</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>173</v>
+        <v>998</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M207" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>999</v>
+      </c>
+      <c r="M207" s="2"/>
       <c r="N207" s="2"/>
       <c r="O207" t="s" s="2">
         <v>80</v>
@@ -27226,40 +27207,40 @@
         <v>80</v>
       </c>
       <c r="AA207" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB207" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AC207" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD207" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>176</v>
+        <v>997</v>
       </c>
       <c r="AF207" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG207" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH207" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI207" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ207" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK207" t="s" s="2">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AL207" t="s" s="2">
-        <v>171</v>
+        <v>1001</v>
       </c>
       <c r="AM207" t="s" s="2">
         <v>80</v>
@@ -27270,7 +27251,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>992</v>
+        <v>1002</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -27290,23 +27271,19 @@
         <v>80</v>
       </c>
       <c r="I208" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J208" t="s" s="2">
-        <v>592</v>
+        <v>90</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>993</v>
+        <v>168</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>994</v>
-      </c>
-      <c r="M208" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="N208" t="s" s="2">
-        <v>595</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="M208" s="2"/>
+      <c r="N208" s="2"/>
       <c r="O208" t="s" s="2">
         <v>80</v>
       </c>
@@ -27354,7 +27331,7 @@
         <v>80</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>596</v>
+        <v>170</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>78</v>
@@ -27366,7 +27343,7 @@
         <v>80</v>
       </c>
       <c r="AI208" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ208" t="s" s="2">
         <v>80</v>
@@ -27375,58 +27352,56 @@
         <v>80</v>
       </c>
       <c r="AL208" t="s" s="2">
-        <v>597</v>
+        <v>171</v>
       </c>
       <c r="AM208" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN208" t="s" s="2">
-        <v>598</v>
+        <v>80</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>995</v>
+        <v>1003</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F209" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G209" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H209" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I209" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J209" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>600</v>
+        <v>173</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="M209" s="2"/>
-      <c r="N209" t="s" s="2">
-        <v>602</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="M209" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N209" s="2"/>
       <c r="O209" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P209" t="s" s="2">
-        <v>603</v>
-      </c>
+      <c r="P209" s="2"/>
       <c r="Q209" t="s" s="2">
         <v>80</v>
       </c>
@@ -27446,13 +27421,13 @@
         <v>80</v>
       </c>
       <c r="W209" t="s" s="2">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="X209" t="s" s="2">
-        <v>604</v>
+        <v>80</v>
       </c>
       <c r="Y209" t="s" s="2">
-        <v>605</v>
+        <v>80</v>
       </c>
       <c r="Z209" t="s" s="2">
         <v>80</v>
@@ -27470,19 +27445,19 @@
         <v>80</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>606</v>
+        <v>176</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG209" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH209" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI209" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ209" t="s" s="2">
         <v>80</v>
@@ -27491,58 +27466,60 @@
         <v>80</v>
       </c>
       <c r="AL209" t="s" s="2">
-        <v>607</v>
+        <v>171</v>
       </c>
       <c r="AM209" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN209" t="s" s="2">
-        <v>608</v>
+        <v>80</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>996</v>
+        <v>1004</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
-        <v>80</v>
+        <v>520</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F210" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G210" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H210" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I210" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J210" t="s" s="2">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>812</v>
+        <v>521</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>813</v>
-      </c>
-      <c r="M210" s="2"/>
+        <v>522</v>
+      </c>
+      <c r="M210" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N210" t="s" s="2">
-        <v>612</v>
+        <v>150</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P210" s="2"/>
       <c r="Q210" t="s" s="2">
-        <v>613</v>
+        <v>80</v>
       </c>
       <c r="R210" t="s" s="2">
         <v>80</v>
@@ -27584,19 +27561,19 @@
         <v>80</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>614</v>
+        <v>523</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG210" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH210" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI210" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ210" t="s" s="2">
         <v>80</v>
@@ -27605,18 +27582,18 @@
         <v>80</v>
       </c>
       <c r="AL210" t="s" s="2">
-        <v>615</v>
+        <v>131</v>
       </c>
       <c r="AM210" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN210" t="s" s="2">
-        <v>616</v>
+        <v>80</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>997</v>
+        <v>1005</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -27624,7 +27601,7 @@
       </c>
       <c r="D211" s="2"/>
       <c r="E211" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F211" t="s" s="2">
         <v>88</v>
@@ -27636,27 +27613,27 @@
         <v>80</v>
       </c>
       <c r="I211" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J211" t="s" s="2">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>853</v>
+        <v>1006</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>854</v>
-      </c>
-      <c r="M211" s="2"/>
-      <c r="N211" t="s" s="2">
-        <v>620</v>
-      </c>
+        <v>1006</v>
+      </c>
+      <c r="M211" t="s" s="2">
+        <v>1007</v>
+      </c>
+      <c r="N211" s="2"/>
       <c r="O211" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P211" s="2"/>
       <c r="Q211" t="s" s="2">
-        <v>621</v>
+        <v>80</v>
       </c>
       <c r="R211" t="s" s="2">
         <v>80</v>
@@ -27674,13 +27651,11 @@
         <v>80</v>
       </c>
       <c r="W211" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X211" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X211" s="2"/>
       <c r="Y211" t="s" s="2">
-        <v>80</v>
+        <v>1008</v>
       </c>
       <c r="Z211" t="s" s="2">
         <v>80</v>
@@ -27698,16 +27673,16 @@
         <v>80</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>622</v>
+        <v>1005</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH211" t="s" s="2">
-        <v>623</v>
+        <v>80</v>
       </c>
       <c r="AI211" t="s" s="2">
         <v>100</v>
@@ -27716,21 +27691,21 @@
         <v>80</v>
       </c>
       <c r="AK211" t="s" s="2">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AL211" t="s" s="2">
-        <v>624</v>
+        <v>1009</v>
       </c>
       <c r="AM211" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN211" t="s" s="2">
-        <v>616</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>998</v>
+        <v>1011</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -27750,29 +27725,27 @@
         <v>80</v>
       </c>
       <c r="I212" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J212" t="s" s="2">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>856</v>
+        <v>1012</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>857</v>
+        <v>1013</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="N212" t="s" s="2">
-        <v>629</v>
-      </c>
+        <v>1014</v>
+      </c>
+      <c r="N212" s="2"/>
       <c r="O212" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P212" s="2"/>
       <c r="Q212" t="s" s="2">
-        <v>630</v>
+        <v>80</v>
       </c>
       <c r="R212" t="s" s="2">
         <v>80</v>
@@ -27790,13 +27763,13 @@
         <v>80</v>
       </c>
       <c r="W212" t="s" s="2">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="X212" t="s" s="2">
-        <v>80</v>
+        <v>1015</v>
       </c>
       <c r="Y212" t="s" s="2">
-        <v>80</v>
+        <v>1016</v>
       </c>
       <c r="Z212" t="s" s="2">
         <v>80</v>
@@ -27814,7 +27787,7 @@
         <v>80</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>631</v>
+        <v>1011</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>78</v>
@@ -27832,21 +27805,21 @@
         <v>80</v>
       </c>
       <c r="AK212" t="s" s="2">
-        <v>80</v>
+        <v>1017</v>
       </c>
       <c r="AL212" t="s" s="2">
-        <v>632</v>
+        <v>1018</v>
       </c>
       <c r="AM212" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN212" t="s" s="2">
-        <v>616</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>999</v>
+        <v>1020</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -27869,13 +27842,13 @@
         <v>80</v>
       </c>
       <c r="J213" t="s" s="2">
-        <v>1000</v>
+        <v>1021</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>1001</v>
+        <v>1022</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>1002</v>
+        <v>1023</v>
       </c>
       <c r="M213" t="s" s="2">
         <v>396</v>
@@ -27928,7 +27901,7 @@
         <v>80</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>999</v>
+        <v>1020</v>
       </c>
       <c r="AF213" t="s" s="2">
         <v>78</v>
@@ -27943,16 +27916,16 @@
         <v>100</v>
       </c>
       <c r="AJ213" t="s" s="2">
-        <v>80</v>
+        <v>1024</v>
       </c>
       <c r="AK213" t="s" s="2">
-        <v>80</v>
+        <v>1017</v>
       </c>
       <c r="AL213" t="s" s="2">
-        <v>1003</v>
+        <v>1025</v>
       </c>
       <c r="AM213" t="s" s="2">
-        <v>433</v>
+        <v>80</v>
       </c>
       <c r="AN213" t="s" s="2">
         <v>80</v>
@@ -27960,18 +27933,18 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>1004</v>
+        <v>1026</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
-        <v>80</v>
+        <v>1027</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F214" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G214" t="s" s="2">
         <v>80</v>
@@ -27983,15 +27956,17 @@
         <v>80</v>
       </c>
       <c r="J214" t="s" s="2">
-        <v>891</v>
+        <v>1028</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>1005</v>
+        <v>1029</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>1006</v>
-      </c>
-      <c r="M214" s="2"/>
+        <v>1030</v>
+      </c>
+      <c r="M214" t="s" s="2">
+        <v>1031</v>
+      </c>
       <c r="N214" s="2"/>
       <c r="O214" t="s" s="2">
         <v>80</v>
@@ -28040,13 +28015,13 @@
         <v>80</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>1004</v>
+        <v>1026</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG214" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH214" t="s" s="2">
         <v>80</v>
@@ -28058,10 +28033,10 @@
         <v>80</v>
       </c>
       <c r="AK214" t="s" s="2">
-        <v>1007</v>
+        <v>80</v>
       </c>
       <c r="AL214" t="s" s="2">
-        <v>1008</v>
+        <v>1032</v>
       </c>
       <c r="AM214" t="s" s="2">
         <v>80</v>
@@ -28072,7 +28047,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>1009</v>
+        <v>1033</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -28083,7 +28058,7 @@
         <v>78</v>
       </c>
       <c r="F215" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G215" t="s" s="2">
         <v>80</v>
@@ -28095,15 +28070,17 @@
         <v>80</v>
       </c>
       <c r="J215" t="s" s="2">
-        <v>90</v>
+        <v>1034</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>168</v>
+        <v>1035</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M215" s="2"/>
+        <v>1036</v>
+      </c>
+      <c r="M215" t="s" s="2">
+        <v>1037</v>
+      </c>
       <c r="N215" s="2"/>
       <c r="O215" t="s" s="2">
         <v>80</v>
@@ -28152,831 +28129,33 @@
         <v>80</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>170</v>
+        <v>1033</v>
       </c>
       <c r="AF215" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG215" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH215" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI215" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ215" t="s" s="2">
-        <v>80</v>
+        <v>1038</v>
       </c>
       <c r="AK215" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL215" t="s" s="2">
-        <v>171</v>
+        <v>1039</v>
       </c>
       <c r="AM215" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN215" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="s" s="2">
-        <v>1010</v>
-      </c>
-      <c r="B216" s="2"/>
-      <c r="C216" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="D216" s="2"/>
-      <c r="E216" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G216" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H216" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I216" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J216" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="K216" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="L216" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M216" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N216" s="2"/>
-      <c r="O216" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P216" s="2"/>
-      <c r="Q216" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R216" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S216" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T216" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U216" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V216" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W216" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X216" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y216" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z216" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA216" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB216" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC216" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD216" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE216" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AF216" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH216" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI216" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AJ216" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK216" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL216" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AM216" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN216" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="s" s="2">
-        <v>1011</v>
-      </c>
-      <c r="B217" s="2"/>
-      <c r="C217" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="D217" s="2"/>
-      <c r="E217" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G217" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H217" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="I217" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J217" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="K217" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="L217" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="M217" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N217" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O217" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P217" s="2"/>
-      <c r="Q217" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R217" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S217" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T217" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U217" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V217" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W217" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X217" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y217" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z217" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA217" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB217" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC217" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD217" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE217" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="AF217" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH217" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI217" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AJ217" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK217" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL217" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AM217" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN217" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="s" s="2">
-        <v>1012</v>
-      </c>
-      <c r="B218" s="2"/>
-      <c r="C218" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D218" s="2"/>
-      <c r="E218" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="F218" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G218" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H218" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I218" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J218" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="K218" t="s" s="2">
-        <v>1013</v>
-      </c>
-      <c r="L218" t="s" s="2">
-        <v>1013</v>
-      </c>
-      <c r="M218" t="s" s="2">
-        <v>1014</v>
-      </c>
-      <c r="N218" s="2"/>
-      <c r="O218" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P218" s="2"/>
-      <c r="Q218" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R218" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S218" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T218" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U218" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V218" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W218" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="X218" s="2"/>
-      <c r="Y218" t="s" s="2">
-        <v>1015</v>
-      </c>
-      <c r="Z218" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA218" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB218" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC218" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD218" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE218" t="s" s="2">
-        <v>1012</v>
-      </c>
-      <c r="AF218" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AG218" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH218" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI218" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ218" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK218" t="s" s="2">
-        <v>1007</v>
-      </c>
-      <c r="AL218" t="s" s="2">
-        <v>1016</v>
-      </c>
-      <c r="AM218" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN218" t="s" s="2">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="s" s="2">
-        <v>1018</v>
-      </c>
-      <c r="B219" s="2"/>
-      <c r="C219" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D219" s="2"/>
-      <c r="E219" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F219" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G219" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H219" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I219" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J219" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="K219" t="s" s="2">
-        <v>1019</v>
-      </c>
-      <c r="L219" t="s" s="2">
-        <v>1020</v>
-      </c>
-      <c r="M219" t="s" s="2">
-        <v>1021</v>
-      </c>
-      <c r="N219" s="2"/>
-      <c r="O219" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P219" s="2"/>
-      <c r="Q219" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R219" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S219" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T219" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U219" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V219" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W219" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="X219" t="s" s="2">
-        <v>1022</v>
-      </c>
-      <c r="Y219" t="s" s="2">
-        <v>1023</v>
-      </c>
-      <c r="Z219" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA219" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB219" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC219" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD219" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE219" t="s" s="2">
-        <v>1018</v>
-      </c>
-      <c r="AF219" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG219" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH219" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI219" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ219" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK219" t="s" s="2">
-        <v>1024</v>
-      </c>
-      <c r="AL219" t="s" s="2">
-        <v>1025</v>
-      </c>
-      <c r="AM219" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN219" t="s" s="2">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="s" s="2">
-        <v>1027</v>
-      </c>
-      <c r="B220" s="2"/>
-      <c r="C220" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D220" s="2"/>
-      <c r="E220" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F220" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G220" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H220" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I220" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J220" t="s" s="2">
-        <v>1028</v>
-      </c>
-      <c r="K220" t="s" s="2">
-        <v>1029</v>
-      </c>
-      <c r="L220" t="s" s="2">
-        <v>1030</v>
-      </c>
-      <c r="M220" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N220" s="2"/>
-      <c r="O220" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P220" s="2"/>
-      <c r="Q220" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R220" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S220" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T220" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U220" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V220" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W220" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X220" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y220" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z220" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA220" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB220" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC220" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD220" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE220" t="s" s="2">
-        <v>1027</v>
-      </c>
-      <c r="AF220" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG220" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH220" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI220" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ220" t="s" s="2">
-        <v>1031</v>
-      </c>
-      <c r="AK220" t="s" s="2">
-        <v>1024</v>
-      </c>
-      <c r="AL220" t="s" s="2">
-        <v>1032</v>
-      </c>
-      <c r="AM220" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN220" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="s" s="2">
-        <v>1033</v>
-      </c>
-      <c r="B221" s="2"/>
-      <c r="C221" t="s" s="2">
-        <v>1034</v>
-      </c>
-      <c r="D221" s="2"/>
-      <c r="E221" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G221" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H221" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I221" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J221" t="s" s="2">
-        <v>1035</v>
-      </c>
-      <c r="K221" t="s" s="2">
-        <v>1036</v>
-      </c>
-      <c r="L221" t="s" s="2">
-        <v>1037</v>
-      </c>
-      <c r="M221" t="s" s="2">
-        <v>1038</v>
-      </c>
-      <c r="N221" s="2"/>
-      <c r="O221" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P221" s="2"/>
-      <c r="Q221" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R221" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S221" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T221" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U221" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V221" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W221" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X221" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y221" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z221" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA221" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB221" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC221" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD221" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE221" t="s" s="2">
-        <v>1033</v>
-      </c>
-      <c r="AF221" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH221" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI221" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ221" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK221" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL221" t="s" s="2">
-        <v>1039</v>
-      </c>
-      <c r="AM221" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN221" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="s" s="2">
-        <v>1040</v>
-      </c>
-      <c r="B222" s="2"/>
-      <c r="C222" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D222" s="2"/>
-      <c r="E222" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G222" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H222" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I222" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J222" t="s" s="2">
-        <v>1041</v>
-      </c>
-      <c r="K222" t="s" s="2">
-        <v>1042</v>
-      </c>
-      <c r="L222" t="s" s="2">
-        <v>1043</v>
-      </c>
-      <c r="M222" t="s" s="2">
-        <v>1044</v>
-      </c>
-      <c r="N222" s="2"/>
-      <c r="O222" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P222" s="2"/>
-      <c r="Q222" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R222" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S222" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T222" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U222" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V222" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W222" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X222" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y222" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z222" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA222" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB222" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC222" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD222" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE222" t="s" s="2">
-        <v>1040</v>
-      </c>
-      <c r="AF222" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH222" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI222" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ222" t="s" s="2">
-        <v>1045</v>
-      </c>
-      <c r="AK222" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL222" t="s" s="2">
-        <v>1046</v>
-      </c>
-      <c r="AM222" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN222" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -456,10 +456,10 @@
 </t>
   </si>
   <si>
-    <t>調剤についてのExtension</t>
-  </si>
-  <si>
-    <t>一包化、粉砕などの処理を行った際に記載する。</t>
+    <t>調剤結果</t>
+  </si>
+  <si>
+    <t>薬剤単位の調剤結果</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3638" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="685">
   <si>
     <t>Property</t>
   </si>
@@ -749,9 +749,6 @@
   </si>
   <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/IdSystem/resourceInstance-identifier</t>
   </si>
   <si>
     <t>The value that is unique</t>
@@ -948,17 +945,28 @@
     <t>MedicationRequest.medication[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Medication)
-</t>
-  </si>
-  <si>
-    <t>Medication to be taken</t>
-  </si>
-  <si>
-    <t>Identifies the medication being requested. This is a link to a resource that represents the medication which may be the details of the medication or simply an attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
+    <t>What medication was supplied　医薬品</t>
+  </si>
+  <si>
+    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.
+投与された薬剤を識別する。既知の薬のリストから薬を識別するコード情報を設定する。</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.
+ひとつのtext要素と、複数のcoding 要素を記述できる。処方オーダ時に選択または入力し、実際に処方箋に印字される文字列を必ずtext要素に格納した上で、それをコード化した情報を1個以上のcoding 要素に記述する。
+厚生労働省標準であるHOT9コード（販社指定が不要な場合にはHOT7コード）または広く流通しているYJコードを用いるか、一般名処方の場合には厚生労働省保険局一般名処方マスタのコードを使用して、Coding要素（コードsystemを識別するURI、医薬品のコード、そのコード表における医薬品の名称の3つからなる）で記述する。
++なお、上記のいずれの標準的コードも付番されていない医薬品や医療材料の場合には、薬機法の下で使用されているGS1標準の識別コードであるGTIN(Global Trade Item Number)の調剤包装単位（最少包装単位、個別包装単位）14桁を使用する。
++ひとつの処方薬、医療材料を複数のコード体系のコードで記述してもよく、その場合にcoding 要素を繰り返して記述する。+ただし、ひとつの処方薬を複数のコードで繰り返し記述する場合には、それらのコードが指し示す処方薬、医療材料は当然同一でなければならない。+また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
+  </si>
+  <si>
+    <t>A coded concept identifying substance or product that can be ordered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}
@@ -992,6 +1000,15 @@
     <t>medicationCodeableConcept</t>
   </si>
   <si>
+    <t>Medication to be taken</t>
+  </si>
+  <si>
+    <t>Identifies the medication being requested. This is a link to a resource that represents the medication which may be the details of the medication or simply an attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
+  </si>
+  <si>
     <t>処方する製剤を表すコード。</t>
   </si>
   <si>
@@ -1011,13 +1028,15 @@
 </t>
   </si>
   <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+    <t>Code defined by a terminology system コード集で定義された医薬品コード</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.
+コード集で定義された医薬品コードへの情報</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.
+</t>
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
@@ -1030,6 +1049,123 @@
   </si>
   <si>
     <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding.userSelected</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
   </si>
   <si>
     <t>MedicationRequest.medication[x].text</t>
@@ -2336,7 +2472,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN100"/>
+  <dimension ref="A1:AN107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5369,7 +5505,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>88</v>
@@ -5403,7 +5539,7 @@
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>237</v>
+        <v>80</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>80</v>
@@ -5485,7 +5621,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>88</v>
@@ -5503,13 +5639,13 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5817,7 +5953,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5843,13 +5979,13 @@
         <v>108</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5878,11 +6014,11 @@
         <v>182</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="Y31" t="s" s="2">
-        <v>246</v>
-      </c>
       <c r="Z31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5899,7 +6035,7 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>88</v>
@@ -5914,16 +6050,16 @@
         <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -5931,7 +6067,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5957,13 +6093,13 @@
         <v>188</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5989,14 +6125,14 @@
         <v>80</v>
       </c>
       <c r="W32" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="X32" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="X32" t="s" s="2">
+      <c r="Y32" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>257</v>
-      </c>
       <c r="Z32" t="s" s="2">
         <v>80</v>
       </c>
@@ -6013,7 +6149,7 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -6028,13 +6164,13 @@
         <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
@@ -6045,7 +6181,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6071,13 +6207,13 @@
         <v>108</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6085,7 +6221,7 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>80</v>
@@ -6106,11 +6242,11 @@
         <v>182</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>266</v>
-      </c>
       <c r="Z33" t="s" s="2">
         <v>80</v>
       </c>
@@ -6127,7 +6263,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>88</v>
@@ -6142,16 +6278,16 @@
         <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AK33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6159,7 +6295,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6185,13 +6321,13 @@
         <v>188</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6221,7 +6357,7 @@
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>80</v>
@@ -6239,7 +6375,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6257,13 +6393,13 @@
         <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AL34" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="AM34" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -6271,7 +6407,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6297,13 +6433,13 @@
         <v>108</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6332,11 +6468,11 @@
         <v>182</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="Z35" t="s" s="2">
         <v>80</v>
       </c>
@@ -6353,7 +6489,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6368,16 +6504,16 @@
         <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AK35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6385,7 +6521,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6408,16 +6544,16 @@
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6467,7 +6603,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6488,7 +6624,7 @@
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6499,7 +6635,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6522,13 +6658,13 @@
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6579,7 +6715,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6600,7 +6736,7 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6611,7 +6747,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6634,16 +6770,16 @@
         <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6669,13 +6805,13 @@
         <v>80</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>80</v>
+        <v>301</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>80</v>
@@ -6691,7 +6827,7 @@
         <v>303</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>88</v>
@@ -6723,7 +6859,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>309</v>
@@ -6736,7 +6872,7 @@
         <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>80</v>
@@ -6751,13 +6887,13 @@
         <v>188</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6786,10 +6922,10 @@
         <v>112</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>80</v>
@@ -6807,7 +6943,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>88</v>
@@ -6839,7 +6975,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6951,7 +7087,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7065,7 +7201,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7088,19 +7224,19 @@
         <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>80</v>
@@ -7149,7 +7285,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -7170,18 +7306,18 @@
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7201,23 +7337,19 @@
         <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>324</v>
+        <v>168</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>80</v>
       </c>
@@ -7265,7 +7397,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>328</v>
+        <v>170</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7277,7 +7409,7 @@
         <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>80</v>
@@ -7286,31 +7418,29 @@
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>329</v>
+        <v>171</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>80</v>
@@ -7319,19 +7449,19 @@
         <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>332</v>
+        <v>133</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>299</v>
+        <v>173</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>300</v>
+        <v>174</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>301</v>
+        <v>149</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7369,51 +7499,51 @@
         <v>80</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>297</v>
+        <v>176</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>304</v>
+        <v>80</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>306</v>
+        <v>171</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>307</v>
+        <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7436,18 +7566,20 @@
         <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>334</v>
+        <v>102</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7498,7 +7630,7 @@
         <v>333</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>88</v>
@@ -7510,24 +7642,24 @@
         <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>338</v>
+        <v>80</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>339</v>
+        <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>341</v>
+        <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7547,19 +7679,19 @@
         <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>344</v>
+        <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7609,7 +7741,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7624,24 +7756,24 @@
         <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>348</v>
+        <v>80</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>248</v>
+        <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7649,10 +7781,10 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>80</v>
@@ -7661,21 +7793,21 @@
         <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>353</v>
+        <v>108</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7723,13 +7855,13 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>80</v>
@@ -7738,24 +7870,24 @@
         <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>357</v>
+        <v>80</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7763,7 +7895,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>88</v>
@@ -7778,16 +7910,18 @@
         <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>360</v>
+        <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7835,7 +7969,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7850,24 +7984,24 @@
         <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>363</v>
+        <v>80</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>364</v>
+        <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>366</v>
+        <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>367</v>
+        <v>356</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7890,18 +8024,20 @@
         <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>369</v>
+        <v>286</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7949,7 +8085,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7964,24 +8100,24 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>372</v>
+        <v>80</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>373</v>
+        <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>80</v>
+        <v>364</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8001,21 +8137,23 @@
         <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>375</v>
+        <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>80</v>
       </c>
@@ -8063,7 +8201,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -8078,26 +8216,28 @@
         <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>378</v>
+        <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>80</v>
+        <v>372</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="B51" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="C51" t="s" s="2">
         <v>80</v>
       </c>
@@ -8118,16 +8258,16 @@
         <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>188</v>
+        <v>374</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>382</v>
+        <v>310</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>383</v>
+        <v>311</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>384</v>
+        <v>312</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8153,11 +8293,13 @@
         <v>80</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="X51" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Y51" t="s" s="2">
-        <v>385</v>
+        <v>80</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>80</v>
@@ -8175,10 +8317,10 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>381</v>
+        <v>296</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>88</v>
@@ -8190,24 +8332,24 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>386</v>
+        <v>304</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>387</v>
+        <v>306</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>80</v>
+        <v>307</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8215,7 +8357,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>88</v>
@@ -8227,19 +8369,19 @@
         <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>356</v>
+        <v>379</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8289,10 +8431,10 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>88</v>
@@ -8304,24 +8446,24 @@
         <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>80</v>
+        <v>381</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>80</v>
+        <v>384</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8332,7 +8474,7 @@
         <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>80</v>
@@ -8344,16 +8486,16 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>188</v>
+        <v>386</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8379,13 +8521,13 @@
         <v>80</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>398</v>
+        <v>80</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>399</v>
+        <v>80</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>80</v>
@@ -8403,13 +8545,13 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>80</v>
@@ -8418,24 +8560,24 @@
         <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>401</v>
+        <v>247</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>404</v>
+        <v>393</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8458,16 +8600,16 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8517,7 +8659,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8532,16 +8674,16 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>248</v>
+        <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -8549,7 +8691,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8557,10 +8699,10 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>80</v>
@@ -8572,17 +8714,15 @@
         <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>80</v>
@@ -8631,13 +8771,13 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>80</v>
@@ -8646,24 +8786,24 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>80</v>
+        <v>406</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>80</v>
+        <v>408</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>80</v>
+        <v>409</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8674,7 +8814,7 @@
         <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>80</v>
@@ -8686,16 +8826,16 @@
         <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>102</v>
+        <v>411</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8745,13 +8885,13 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>80</v>
@@ -8760,16 +8900,16 @@
         <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>80</v>
+        <v>414</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>80</v>
+        <v>415</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8777,7 +8917,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8788,7 +8928,7 @@
         <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>80</v>
@@ -8797,19 +8937,19 @@
         <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8859,13 +8999,13 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>80</v>
@@ -8874,16 +9014,16 @@
         <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>80</v>
+        <v>422</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -8891,7 +9031,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8914,18 +9054,18 @@
         <v>89</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>80</v>
       </c>
@@ -8949,13 +9089,11 @@
         <v>80</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="X58" s="2"/>
       <c r="Y58" t="s" s="2">
-        <v>80</v>
+        <v>427</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>80</v>
@@ -8973,7 +9111,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8988,13 +9126,13 @@
         <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
@@ -9005,7 +9143,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9028,16 +9166,16 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>188</v>
+        <v>431</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>437</v>
+        <v>398</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9063,13 +9201,13 @@
         <v>80</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>438</v>
+        <v>80</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>439</v>
+        <v>80</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>80</v>
@@ -9087,7 +9225,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -9108,10 +9246,10 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>80</v>
+        <v>435</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -9119,7 +9257,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9142,16 +9280,16 @@
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>442</v>
+        <v>188</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>356</v>
+        <v>439</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9177,13 +9315,13 @@
         <v>80</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>80</v>
+        <v>440</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>80</v>
+        <v>441</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>80</v>
@@ -9201,7 +9339,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -9216,19 +9354,19 @@
         <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AK60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="61">
@@ -9333,13 +9471,13 @@
         <v>452</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="AL61" t="s" s="2">
-        <v>454</v>
-      </c>
       <c r="AM61" t="s" s="2">
-        <v>80</v>
+        <v>445</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
@@ -9347,7 +9485,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9367,19 +9505,19 @@
         <v>80</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9429,7 +9567,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9444,7 +9582,7 @@
         <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>80</v>
+        <v>459</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
@@ -9472,7 +9610,7 @@
         <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>80</v>
@@ -9481,18 +9619,20 @@
         <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="L63" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>80</v>
@@ -9547,7 +9687,7 @@
         <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>80</v>
@@ -9559,10 +9699,10 @@
         <v>80</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>465</v>
+        <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9573,7 +9713,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9584,7 +9724,7 @@
         <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>80</v>
@@ -9593,18 +9733,20 @@
         <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>90</v>
+        <v>465</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>80</v>
@@ -9653,28 +9795,28 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>170</v>
+        <v>464</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>80</v>
+        <v>468</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>171</v>
+        <v>469</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
@@ -9696,7 +9838,7 @@
         <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>80</v>
@@ -9705,19 +9847,21 @@
         <v>80</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>134</v>
+        <v>471</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>135</v>
+        <v>472</v>
       </c>
       <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+      <c r="N65" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9753,38 +9897,40 @@
         <v>80</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AB65" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AC65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>176</v>
+        <v>470</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>80</v>
+        <v>474</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>80</v>
+        <v>475</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
@@ -9795,11 +9941,9 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
         <v>80</v>
       </c>
@@ -9808,7 +9952,7 @@
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>80</v>
@@ -9820,15 +9964,17 @@
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>472</v>
+        <v>188</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>80</v>
@@ -9853,13 +9999,13 @@
         <v>80</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>80</v>
+        <v>480</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>80</v>
+        <v>481</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>80</v>
@@ -9877,19 +10023,19 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>176</v>
+        <v>476</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>80</v>
@@ -9898,7 +10044,7 @@
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>80</v>
+        <v>482</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
@@ -9909,11 +10055,9 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
         <v>80</v>
       </c>
@@ -9922,7 +10066,7 @@
         <v>78</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>80</v>
@@ -9934,15 +10078,17 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>486</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>80</v>
@@ -9991,7 +10137,7 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>176</v>
+        <v>483</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -10000,19 +10146,19 @@
         <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>80</v>
+        <v>487</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>80</v>
+        <v>488</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
@@ -10023,11 +10169,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -10040,26 +10186,24 @@
         <v>80</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>133</v>
+        <v>490</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>80</v>
       </c>
@@ -10107,7 +10251,7 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10119,16 +10263,16 @@
         <v>80</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>80</v>
+        <v>494</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>80</v>
+        <v>495</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>131</v>
+        <v>496</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
@@ -10139,7 +10283,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10150,7 +10294,7 @@
         <v>78</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>80</v>
@@ -10162,16 +10306,16 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>462</v>
+        <v>498</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10221,13 +10365,13 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>80</v>
@@ -10242,7 +10386,7 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
@@ -10253,7 +10397,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10276,13 +10420,13 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>90</v>
+        <v>504</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>168</v>
+        <v>505</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>169</v>
+        <v>506</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10333,7 +10477,7 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>170</v>
+        <v>503</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10345,16 +10489,16 @@
         <v>80</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>80</v>
+        <v>507</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>171</v>
+        <v>508</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
@@ -10365,18 +10509,18 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>80</v>
@@ -10388,17 +10532,15 @@
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>173</v>
+        <v>510</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>80</v>
@@ -10447,19 +10589,19 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>80</v>
@@ -10479,11 +10621,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10496,26 +10638,22 @@
         <v>80</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>133</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>481</v>
+        <v>134</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>80</v>
       </c>
@@ -10551,19 +10689,17 @@
         <v>80</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AB72" s="2"/>
       <c r="AC72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>483</v>
+        <v>176</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10584,7 +10720,7 @@
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
@@ -10595,9 +10731,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="B73" s="2"/>
+        <v>512</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>513</v>
+      </c>
       <c r="C73" t="s" s="2">
         <v>80</v>
       </c>
@@ -10606,7 +10744,7 @@
         <v>78</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>80</v>
@@ -10618,17 +10756,15 @@
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>494</v>
+        <v>515</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>496</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>80</v>
@@ -10677,19 +10813,19 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>492</v>
+        <v>176</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>144</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>497</v>
+        <v>139</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>80</v>
@@ -10698,20 +10834,22 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>498</v>
+        <v>80</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>499</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="B74" s="2"/>
+        <v>512</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>517</v>
+      </c>
       <c r="C74" t="s" s="2">
         <v>80</v>
       </c>
@@ -10732,17 +10870,15 @@
         <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>496</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>80</v>
@@ -10791,19 +10927,19 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>500</v>
+        <v>176</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>80</v>
@@ -10812,7 +10948,7 @@
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>504</v>
+        <v>80</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
@@ -10823,41 +10959,43 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>80</v>
+        <v>522</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>501</v>
+        <v>133</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>80</v>
       </c>
@@ -10905,19 +11043,19 @@
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>505</v>
+        <v>525</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>80</v>
@@ -10926,7 +11064,7 @@
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>504</v>
+        <v>131</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
@@ -10937,7 +11075,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10960,20 +11098,18 @@
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>217</v>
+        <v>504</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>512</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>80</v>
       </c>
@@ -11021,7 +11157,7 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -11039,10 +11175,10 @@
         <v>80</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>513</v>
+        <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>514</v>
+        <v>530</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>80</v>
@@ -11053,7 +11189,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11165,7 +11301,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>516</v>
+        <v>532</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11235,16 +11371,16 @@
         <v>80</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AC78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE78" t="s" s="2">
         <v>176</v>
@@ -11279,41 +11415,43 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>80</v>
+        <v>522</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>360</v>
+        <v>133</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>80</v>
       </c>
@@ -11361,19 +11499,19 @@
         <v>80</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>522</v>
+        <v>80</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>80</v>
@@ -11382,18 +11520,18 @@
         <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>523</v>
+        <v>131</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>524</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11413,27 +11551,25 @@
         <v>80</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>360</v>
+        <v>535</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P80" t="s" s="2">
-        <v>529</v>
-      </c>
+      <c r="P80" s="2"/>
       <c r="Q80" t="s" s="2">
         <v>80</v>
       </c>
@@ -11477,7 +11613,7 @@
         <v>80</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11486,10 +11622,10 @@
         <v>88</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>522</v>
+        <v>144</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>100</v>
+        <v>539</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>80</v>
@@ -11498,18 +11634,18 @@
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>532</v>
+        <v>541</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11532,16 +11668,16 @@
         <v>80</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11591,7 +11727,7 @@
         <v>80</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11609,21 +11745,21 @@
         <v>80</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>538</v>
+        <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>540</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11646,16 +11782,16 @@
         <v>80</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>493</v>
+        <v>543</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>496</v>
+        <v>538</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11705,7 +11841,7 @@
         <v>80</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11714,10 +11850,10 @@
         <v>88</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>497</v>
+        <v>100</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>80</v>
@@ -11726,18 +11862,18 @@
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>498</v>
+        <v>546</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>499</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11760,18 +11896,20 @@
         <v>80</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>501</v>
+        <v>217</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>553</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>554</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>80</v>
       </c>
@@ -11819,7 +11957,7 @@
         <v>80</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -11837,10 +11975,10 @@
         <v>80</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>80</v>
@@ -11851,7 +11989,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11963,7 +12101,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12077,7 +12215,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12100,20 +12238,18 @@
         <v>89</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>553</v>
+        <v>402</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>557</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>80</v>
       </c>
@@ -12161,7 +12297,7 @@
         <v>80</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12170,7 +12306,7 @@
         <v>88</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>80</v>
+        <v>564</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>100</v>
@@ -12182,18 +12318,18 @@
         <v>80</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12210,83 +12346,83 @@
         <v>80</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>108</v>
+        <v>402</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P87" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="Q87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH87" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P87" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="Q87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>100</v>
@@ -12298,18 +12434,18 @@
         <v>80</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12329,69 +12465,69 @@
         <v>80</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>90</v>
+        <v>576</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" t="s" s="2">
-        <v>574</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE88" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>576</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12409,21 +12545,21 @@
         <v>80</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12443,70 +12579,70 @@
         <v>80</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>102</v>
+        <v>535</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" t="s" s="2">
-        <v>582</v>
-      </c>
+        <v>585</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE89" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="R89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>584</v>
-      </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
       </c>
@@ -12514,10 +12650,10 @@
         <v>88</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>585</v>
+        <v>144</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>100</v>
+        <v>539</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>80</v>
@@ -12526,18 +12662,18 @@
         <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>586</v>
+        <v>540</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>578</v>
+        <v>541</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12557,29 +12693,27 @@
         <v>80</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>108</v>
+        <v>543</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="M90" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>591</v>
-      </c>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" t="s" s="2">
-        <v>592</v>
+        <v>80</v>
       </c>
       <c r="R90" t="s" s="2">
         <v>80</v>
@@ -12621,7 +12755,7 @@
         <v>80</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -12639,21 +12773,21 @@
         <v>80</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>80</v>
+        <v>590</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>578</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12676,17 +12810,15 @@
         <v>80</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>596</v>
+        <v>90</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>597</v>
+        <v>168</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>80</v>
@@ -12735,7 +12867,7 @@
         <v>80</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>595</v>
+        <v>170</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -12747,7 +12879,7 @@
         <v>80</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>80</v>
@@ -12756,10 +12888,10 @@
         <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>599</v>
+        <v>171</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>393</v>
+        <v>80</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>80</v>
@@ -12767,18 +12899,18 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>80</v>
@@ -12790,15 +12922,17 @@
         <v>80</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>462</v>
+        <v>133</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>601</v>
+        <v>173</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="M92" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>80</v>
@@ -12835,40 +12969,40 @@
         <v>80</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AC92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD92" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>600</v>
+        <v>176</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>603</v>
+        <v>80</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>604</v>
+        <v>171</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>80</v>
@@ -12879,7 +13013,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12899,19 +13033,23 @@
         <v>80</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>90</v>
+        <v>595</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>168</v>
+        <v>596</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
+        <v>597</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>599</v>
+      </c>
       <c r="O93" t="s" s="2">
         <v>80</v>
       </c>
@@ -12959,7 +13097,7 @@
         <v>80</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>170</v>
+        <v>600</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -12971,7 +13109,7 @@
         <v>80</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>80</v>
@@ -12980,56 +13118,58 @@
         <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>171</v>
+        <v>601</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>80</v>
+        <v>602</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>173</v>
+        <v>604</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>605</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" t="s" s="2">
+        <v>606</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>607</v>
+      </c>
       <c r="Q94" t="s" s="2">
         <v>80</v>
       </c>
@@ -13049,13 +13189,13 @@
         <v>80</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>80</v>
+        <v>608</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>80</v>
+        <v>609</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>80</v>
@@ -13073,19 +13213,19 @@
         <v>80</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>176</v>
+        <v>610</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>80</v>
@@ -13094,60 +13234,58 @@
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>171</v>
+        <v>611</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>80</v>
+        <v>612</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>481</v>
+        <v>614</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
-        <v>150</v>
+        <v>616</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P95" s="2"/>
       <c r="Q95" t="s" s="2">
-        <v>80</v>
+        <v>617</v>
       </c>
       <c r="R95" t="s" s="2">
         <v>80</v>
@@ -13189,19 +13327,19 @@
         <v>80</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>483</v>
+        <v>618</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>80</v>
@@ -13210,18 +13348,18 @@
         <v>80</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>131</v>
+        <v>619</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>80</v>
+        <v>620</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13229,7 +13367,7 @@
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>88</v>
@@ -13241,27 +13379,27 @@
         <v>80</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="N96" s="2"/>
+        <v>623</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" t="s" s="2">
+        <v>624</v>
+      </c>
       <c r="O96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
-        <v>80</v>
+        <v>625</v>
       </c>
       <c r="R96" t="s" s="2">
         <v>80</v>
@@ -13279,11 +13417,13 @@
         <v>80</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="X96" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Y96" t="s" s="2">
-        <v>611</v>
+        <v>80</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>80</v>
@@ -13301,16 +13441,16 @@
         <v>80</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>80</v>
+        <v>627</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>100</v>
@@ -13319,21 +13459,21 @@
         <v>80</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>603</v>
+        <v>80</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>612</v>
+        <v>628</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>613</v>
+        <v>620</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13353,27 +13493,29 @@
         <v>80</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="N97" s="2"/>
+        <v>632</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>633</v>
+      </c>
       <c r="O97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" t="s" s="2">
-        <v>80</v>
+        <v>634</v>
       </c>
       <c r="R97" t="s" s="2">
         <v>80</v>
@@ -13391,13 +13533,13 @@
         <v>80</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>618</v>
+        <v>80</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>619</v>
+        <v>80</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>80</v>
@@ -13415,7 +13557,7 @@
         <v>80</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>614</v>
+        <v>635</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
@@ -13433,21 +13575,21 @@
         <v>80</v>
       </c>
       <c r="AK97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN97" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>622</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13470,16 +13612,16 @@
         <v>80</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>626</v>
+        <v>640</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -13529,7 +13671,7 @@
         <v>80</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>78</v>
@@ -13544,16 +13686,16 @@
         <v>100</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>627</v>
+        <v>80</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>620</v>
+        <v>80</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>80</v>
+        <v>435</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>80</v>
@@ -13561,18 +13703,18 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>629</v>
+        <v>642</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>630</v>
+        <v>80</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>80</v>
@@ -13584,17 +13726,15 @@
         <v>80</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>631</v>
+        <v>504</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>634</v>
-      </c>
+        <v>644</v>
+      </c>
+      <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>80</v>
@@ -13643,13 +13783,13 @@
         <v>80</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>629</v>
+        <v>642</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>80</v>
@@ -13661,10 +13801,10 @@
         <v>80</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>80</v>
+        <v>645</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>80</v>
@@ -13675,7 +13815,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13686,7 +13826,7 @@
         <v>78</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>80</v>
@@ -13698,17 +13838,15 @@
         <v>80</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>637</v>
+        <v>90</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>638</v>
+        <v>168</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>640</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="M100" s="2"/>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>80</v>
@@ -13757,33 +13895,831 @@
         <v>80</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>636</v>
+        <v>170</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG100" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F101" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI100" t="s" s="2">
+      <c r="G101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X103" s="2"/>
+      <c r="Y103" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI103" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ100" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN100" t="s" s="2">
+      <c r="AJ103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN107" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="686">
   <si>
     <t>Property</t>
   </si>
@@ -287,7 +287,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -539,6 +539,10 @@
   </si>
   <si>
     <t>MedicationRequest.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -4032,13 +4036,13 @@
         <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -4089,7 +4093,7 @@
         <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>78</v>
@@ -4110,7 +4114,7 @@
         <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>80</v>
@@ -4121,7 +4125,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -4147,10 +4151,10 @@
         <v>133</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>149</v>
@@ -4194,7 +4198,7 @@
         <v>136</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>80</v>
@@ -4203,7 +4207,7 @@
         <v>137</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
@@ -4224,7 +4228,7 @@
         <v>80</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>80</v>
@@ -4235,7 +4239,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -4261,16 +4265,16 @@
         <v>108</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>80</v>
@@ -4295,13 +4299,13 @@
         <v>80</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>80</v>
@@ -4319,7 +4323,7 @@
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -4340,7 +4344,7 @@
         <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>80</v>
@@ -4351,7 +4355,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4374,19 +4378,19 @@
         <v>89</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>80</v>
@@ -4411,13 +4415,13 @@
         <v>80</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>80</v>
@@ -4435,7 +4439,7 @@
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -4456,18 +4460,18 @@
         <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4493,29 +4497,29 @@
         <v>102</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>80</v>
@@ -4551,7 +4555,7 @@
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -4572,18 +4576,18 @@
         <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4606,16 +4610,16 @@
         <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4629,7 +4633,7 @@
         <v>80</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>80</v>
@@ -4665,7 +4669,7 @@
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -4686,18 +4690,18 @@
         <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4720,13 +4724,13 @@
         <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4777,7 +4781,7 @@
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4798,18 +4802,18 @@
         <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4832,16 +4836,16 @@
         <v>89</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4891,7 +4895,7 @@
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4912,13 +4916,13 @@
         <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22">
@@ -4926,7 +4930,7 @@
         <v>152</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>80</v>
@@ -4951,13 +4955,13 @@
         <v>153</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -5062,13 +5066,13 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -5119,7 +5123,7 @@
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -5140,7 +5144,7 @@
         <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>80</v>
@@ -5151,7 +5155,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5177,10 +5181,10 @@
         <v>133</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>149</v>
@@ -5224,7 +5228,7 @@
         <v>136</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>80</v>
@@ -5233,7 +5237,7 @@
         <v>137</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -5254,7 +5258,7 @@
         <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>80</v>
@@ -5265,7 +5269,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5291,16 +5295,16 @@
         <v>108</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>80</v>
@@ -5325,13 +5329,13 @@
         <v>80</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>80</v>
@@ -5349,7 +5353,7 @@
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -5370,7 +5374,7 @@
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>80</v>
@@ -5381,7 +5385,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5404,19 +5408,19 @@
         <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>80</v>
@@ -5441,13 +5445,13 @@
         <v>80</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>80</v>
@@ -5465,7 +5469,7 @@
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5486,18 +5490,18 @@
         <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5523,16 +5527,16 @@
         <v>102</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>80</v>
@@ -5545,7 +5549,7 @@
         <v>80</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>80</v>
@@ -5581,7 +5585,7 @@
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5602,18 +5606,18 @@
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5636,16 +5640,16 @@
         <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5659,7 +5663,7 @@
         <v>80</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>80</v>
@@ -5695,7 +5699,7 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5716,18 +5720,18 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5750,13 +5754,13 @@
         <v>89</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5807,7 +5811,7 @@
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5828,18 +5832,18 @@
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5862,16 +5866,16 @@
         <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5921,7 +5925,7 @@
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5942,18 +5946,18 @@
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5979,13 +5983,13 @@
         <v>108</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -6011,13 +6015,13 @@
         <v>80</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>80</v>
@@ -6035,7 +6039,7 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>88</v>
@@ -6050,16 +6054,16 @@
         <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -6067,7 +6071,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6090,16 +6094,16 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -6125,13 +6129,13 @@
         <v>80</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>80</v>
@@ -6149,7 +6153,7 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -6164,13 +6168,13 @@
         <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
@@ -6181,7 +6185,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6207,13 +6211,13 @@
         <v>108</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6221,7 +6225,7 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>80</v>
@@ -6239,13 +6243,13 @@
         <v>80</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>80</v>
@@ -6263,7 +6267,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>88</v>
@@ -6278,16 +6282,16 @@
         <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6295,7 +6299,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6318,16 +6322,16 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6357,7 +6361,7 @@
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>80</v>
@@ -6375,7 +6379,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6393,13 +6397,13 @@
         <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -6407,7 +6411,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6433,13 +6437,13 @@
         <v>108</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6465,13 +6469,13 @@
         <v>80</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>80</v>
@@ -6489,7 +6493,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6504,16 +6508,16 @@
         <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6521,7 +6525,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6544,16 +6548,16 @@
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6603,7 +6607,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6624,7 +6628,7 @@
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6635,7 +6639,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6658,13 +6662,13 @@
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6715,7 +6719,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6736,7 +6740,7 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6747,7 +6751,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6770,16 +6774,16 @@
         <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6805,29 +6809,29 @@
         <v>80</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AB38" s="2"/>
       <c r="AC38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>88</v>
@@ -6842,27 +6846,27 @@
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>80</v>
@@ -6884,16 +6888,16 @@
         <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6922,10 +6926,10 @@
         <v>112</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>80</v>
@@ -6943,7 +6947,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>88</v>
@@ -6958,24 +6962,24 @@
         <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6998,13 +7002,13 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -7055,7 +7059,7 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -7076,7 +7080,7 @@
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -7087,7 +7091,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7113,10 +7117,10 @@
         <v>133</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>149</v>
@@ -7160,7 +7164,7 @@
         <v>136</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>80</v>
@@ -7169,7 +7173,7 @@
         <v>137</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -7190,7 +7194,7 @@
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -7201,7 +7205,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7224,19 +7228,19 @@
         <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>80</v>
@@ -7285,7 +7289,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -7306,18 +7310,18 @@
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7340,13 +7344,13 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7397,7 +7401,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7418,7 +7422,7 @@
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
@@ -7429,7 +7433,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7455,10 +7459,10 @@
         <v>133</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>149</v>
@@ -7502,7 +7506,7 @@
         <v>136</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>80</v>
@@ -7511,7 +7515,7 @@
         <v>137</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7532,7 +7536,7 @@
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
@@ -7543,7 +7547,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7569,16 +7573,16 @@
         <v>102</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>80</v>
@@ -7627,7 +7631,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7648,18 +7652,18 @@
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7682,16 +7686,16 @@
         <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7741,7 +7745,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7762,18 +7766,18 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7799,14 +7803,14 @@
         <v>108</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>80</v>
@@ -7855,7 +7859,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7876,18 +7880,18 @@
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7910,17 +7914,17 @@
         <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>80</v>
@@ -7969,7 +7973,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7990,18 +7994,18 @@
         <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8024,19 +8028,19 @@
         <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>80</v>
@@ -8085,7 +8089,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -8106,18 +8110,18 @@
         <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8140,19 +8144,19 @@
         <v>89</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>80</v>
@@ -8201,7 +8205,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -8222,21 +8226,21 @@
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>80</v>
@@ -8258,16 +8262,16 @@
         <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8317,7 +8321,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>88</v>
@@ -8332,24 +8336,24 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8372,16 +8376,16 @@
         <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8431,7 +8435,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>88</v>
@@ -8446,24 +8450,24 @@
         <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8486,16 +8490,16 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8545,7 +8549,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8560,24 +8564,24 @@
         <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8600,16 +8604,16 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8659,7 +8663,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8674,16 +8678,16 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -8691,7 +8695,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8714,13 +8718,13 @@
         <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8771,7 +8775,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8786,24 +8790,24 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8826,16 +8830,16 @@
         <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8885,7 +8889,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8900,16 +8904,16 @@
         <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8917,7 +8921,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8940,16 +8944,16 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8999,7 +9003,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -9014,16 +9018,16 @@
         <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -9031,7 +9035,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9054,16 +9058,16 @@
         <v>89</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -9089,11 +9093,11 @@
         <v>80</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="X58" s="2"/>
       <c r="Y58" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>80</v>
@@ -9111,7 +9115,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -9126,13 +9130,13 @@
         <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
@@ -9143,7 +9147,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9166,16 +9170,16 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9225,7 +9229,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -9246,10 +9250,10 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -9257,7 +9261,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9280,16 +9284,16 @@
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9315,13 +9319,13 @@
         <v>80</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>80</v>
@@ -9339,7 +9343,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -9354,24 +9358,24 @@
         <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9394,16 +9398,16 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9453,7 +9457,7 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9468,16 +9472,16 @@
         <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
@@ -9485,7 +9489,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9508,16 +9512,16 @@
         <v>89</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9567,7 +9571,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9582,13 +9586,13 @@
         <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
@@ -9599,7 +9603,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9625,13 +9629,13 @@
         <v>102</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9681,7 +9685,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9702,7 +9706,7 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9713,7 +9717,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9736,16 +9740,16 @@
         <v>89</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9795,7 +9799,7 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9810,13 +9814,13 @@
         <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
@@ -9827,7 +9831,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9853,14 +9857,14 @@
         <v>153</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>80</v>
@@ -9909,7 +9913,7 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9924,13 +9928,13 @@
         <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
@@ -9941,7 +9945,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9964,16 +9968,16 @@
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9999,13 +10003,13 @@
         <v>80</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>80</v>
@@ -10023,7 +10027,7 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -10044,7 +10048,7 @@
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
@@ -10055,7 +10059,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10078,16 +10082,16 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -10137,7 +10141,7 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -10152,13 +10156,13 @@
         <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
@@ -10169,7 +10173,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10192,16 +10196,16 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10251,7 +10255,7 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10266,13 +10270,13 @@
         <v>100</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
@@ -10283,7 +10287,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10306,16 +10310,16 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10365,7 +10369,7 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10386,7 +10390,7 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
@@ -10397,7 +10401,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10420,13 +10424,13 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10477,7 +10481,7 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10495,10 +10499,10 @@
         <v>80</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
@@ -10509,7 +10513,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10532,13 +10536,13 @@
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10589,7 +10593,7 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10610,7 +10614,7 @@
         <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
@@ -10621,7 +10625,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10699,7 +10703,7 @@
         <v>137</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10731,10 +10735,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C73" t="s" s="2">
         <v>80</v>
@@ -10756,13 +10760,13 @@
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10813,7 +10817,7 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10845,10 +10849,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C74" t="s" s="2">
         <v>80</v>
@@ -10870,13 +10874,13 @@
         <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10927,7 +10931,7 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10959,11 +10963,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10985,10 +10989,10 @@
         <v>133</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M75" t="s" s="2">
         <v>149</v>
@@ -11043,7 +11047,7 @@
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -11075,7 +11079,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11098,16 +11102,16 @@
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -11157,7 +11161,7 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -11178,7 +11182,7 @@
         <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>80</v>
@@ -11189,7 +11193,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11212,13 +11216,13 @@
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11269,7 +11273,7 @@
         <v>80</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -11290,7 +11294,7 @@
         <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>80</v>
@@ -11301,7 +11305,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11327,10 +11331,10 @@
         <v>133</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>149</v>
@@ -11383,7 +11387,7 @@
         <v>80</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -11404,7 +11408,7 @@
         <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>80</v>
@@ -11415,11 +11419,11 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11441,10 +11445,10 @@
         <v>133</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>149</v>
@@ -11499,7 +11503,7 @@
         <v>80</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11531,7 +11535,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11554,16 +11558,16 @@
         <v>80</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11613,7 +11617,7 @@
         <v>80</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11625,7 +11629,7 @@
         <v>144</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>80</v>
@@ -11634,18 +11638,18 @@
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11668,16 +11672,16 @@
         <v>80</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11727,7 +11731,7 @@
         <v>80</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11748,7 +11752,7 @@
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>80</v>
@@ -11759,7 +11763,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11782,16 +11786,16 @@
         <v>80</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11841,7 +11845,7 @@
         <v>80</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11862,7 +11866,7 @@
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>80</v>
@@ -11873,7 +11877,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11896,19 +11900,19 @@
         <v>80</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>80</v>
@@ -11957,7 +11961,7 @@
         <v>80</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -11975,10 +11979,10 @@
         <v>80</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>80</v>
@@ -11989,7 +11993,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12012,13 +12016,13 @@
         <v>80</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12069,7 +12073,7 @@
         <v>80</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -12090,7 +12094,7 @@
         <v>80</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>80</v>
@@ -12101,7 +12105,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12127,10 +12131,10 @@
         <v>133</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M85" t="s" s="2">
         <v>149</v>
@@ -12174,7 +12178,7 @@
         <v>136</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC85" t="s" s="2">
         <v>80</v>
@@ -12183,7 +12187,7 @@
         <v>137</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -12204,7 +12208,7 @@
         <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>80</v>
@@ -12215,7 +12219,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12238,16 +12242,16 @@
         <v>89</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -12297,7 +12301,7 @@
         <v>80</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12306,7 +12310,7 @@
         <v>88</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>100</v>
@@ -12318,18 +12322,18 @@
         <v>80</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12352,23 +12356,23 @@
         <v>89</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P87" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="Q87" t="s" s="2">
         <v>80</v>
@@ -12413,7 +12417,7 @@
         <v>80</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -12422,7 +12426,7 @@
         <v>88</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>100</v>
@@ -12434,18 +12438,18 @@
         <v>80</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12468,16 +12472,16 @@
         <v>80</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12527,7 +12531,7 @@
         <v>80</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12545,21 +12549,21 @@
         <v>80</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12582,16 +12586,16 @@
         <v>80</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12641,7 +12645,7 @@
         <v>80</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12653,7 +12657,7 @@
         <v>144</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>80</v>
@@ -12662,18 +12666,18 @@
         <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12696,16 +12700,16 @@
         <v>80</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12755,7 +12759,7 @@
         <v>80</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -12773,10 +12777,10 @@
         <v>80</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>80</v>
@@ -12787,7 +12791,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12810,13 +12814,13 @@
         <v>80</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12867,7 +12871,7 @@
         <v>80</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -12888,7 +12892,7 @@
         <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>80</v>
@@ -12899,7 +12903,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12925,10 +12929,10 @@
         <v>133</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M92" t="s" s="2">
         <v>149</v>
@@ -12972,7 +12976,7 @@
         <v>136</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC92" t="s" s="2">
         <v>80</v>
@@ -12981,7 +12985,7 @@
         <v>137</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -13002,7 +13006,7 @@
         <v>80</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>80</v>
@@ -13013,7 +13017,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13036,19 +13040,19 @@
         <v>89</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>80</v>
@@ -13097,7 +13101,7 @@
         <v>80</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -13118,18 +13122,18 @@
         <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13155,20 +13159,20 @@
         <v>108</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P94" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="Q94" t="s" s="2">
         <v>80</v>
@@ -13189,13 +13193,13 @@
         <v>80</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>80</v>
@@ -13213,7 +13217,7 @@
         <v>80</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -13234,18 +13238,18 @@
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13268,24 +13272,24 @@
         <v>89</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P95" s="2"/>
       <c r="Q95" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="R95" t="s" s="2">
         <v>80</v>
@@ -13327,7 +13331,7 @@
         <v>80</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>78</v>
@@ -13348,18 +13352,18 @@
         <v>80</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13385,21 +13389,21 @@
         <v>102</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="R96" t="s" s="2">
         <v>80</v>
@@ -13441,7 +13445,7 @@
         <v>80</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>78</v>
@@ -13450,7 +13454,7 @@
         <v>88</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>100</v>
@@ -13462,18 +13466,18 @@
         <v>80</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13499,23 +13503,23 @@
         <v>108</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="R97" t="s" s="2">
         <v>80</v>
@@ -13557,7 +13561,7 @@
         <v>80</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
@@ -13578,18 +13582,18 @@
         <v>80</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13612,16 +13616,16 @@
         <v>80</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -13671,7 +13675,7 @@
         <v>80</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>78</v>
@@ -13692,10 +13696,10 @@
         <v>80</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>80</v>
@@ -13703,7 +13707,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13726,13 +13730,13 @@
         <v>80</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -13783,7 +13787,7 @@
         <v>80</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>78</v>
@@ -13801,10 +13805,10 @@
         <v>80</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>80</v>
@@ -13815,7 +13819,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13838,13 +13842,13 @@
         <v>80</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -13895,7 +13899,7 @@
         <v>80</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>78</v>
@@ -13916,7 +13920,7 @@
         <v>80</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>80</v>
@@ -13927,7 +13931,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13953,10 +13957,10 @@
         <v>133</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M101" t="s" s="2">
         <v>149</v>
@@ -14009,7 +14013,7 @@
         <v>80</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>78</v>
@@ -14030,7 +14034,7 @@
         <v>80</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>80</v>
@@ -14041,11 +14045,11 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -14067,10 +14071,10 @@
         <v>133</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M102" t="s" s="2">
         <v>149</v>
@@ -14125,7 +14129,7 @@
         <v>80</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>78</v>
@@ -14157,7 +14161,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14180,16 +14184,16 @@
         <v>80</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
@@ -14219,7 +14223,7 @@
       </c>
       <c r="X103" s="2"/>
       <c r="Y103" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>80</v>
@@ -14237,7 +14241,7 @@
         <v>80</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>88</v>
@@ -14255,21 +14259,21 @@
         <v>80</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14292,16 +14296,16 @@
         <v>80</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
@@ -14327,13 +14331,13 @@
         <v>80</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>80</v>
@@ -14351,7 +14355,7 @@
         <v>80</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>78</v>
@@ -14369,21 +14373,21 @@
         <v>80</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14406,16 +14410,16 @@
         <v>80</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -14465,7 +14469,7 @@
         <v>80</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>78</v>
@@ -14480,13 +14484,13 @@
         <v>100</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>80</v>
@@ -14497,11 +14501,11 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -14520,16 +14524,16 @@
         <v>80</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -14579,7 +14583,7 @@
         <v>80</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>78</v>
@@ -14600,7 +14604,7 @@
         <v>80</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>80</v>
@@ -14611,7 +14615,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14634,16 +14638,16 @@
         <v>80</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
@@ -14693,7 +14697,7 @@
         <v>80</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>78</v>
@@ -14708,13 +14712,13 @@
         <v>100</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>80</v>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3456" uniqueCount="622">
   <si>
     <t>Property</t>
   </si>
@@ -753,6 +753,9 @@
   </si>
   <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/IdSystem/resourceInstance-identifier</t>
   </si>
   <si>
     <t>The value that is unique</t>
@@ -947,6 +950,10 @@
   </si>
   <si>
     <t>MedicationRequest.medication[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Medication)
+</t>
   </si>
   <si>
     <t>What medication was supplied　医薬品</t>
@@ -967,12 +974,6 @@
 また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
   </si>
   <si>
-    <t>A coded concept identifying substance or product that can be ordered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
-  </si>
-  <si>
     <t xml:space="preserve">type:$this}
 </t>
   </si>
@@ -999,201 +1000,6 @@
   </si>
   <si>
     <t>RXE-2-Give Code / RXO-1-Requested Give Code / RXC-2-Component Code</t>
-  </si>
-  <si>
-    <t>medicationCodeableConcept</t>
-  </si>
-  <si>
-    <t>Medication to be taken</t>
-  </si>
-  <si>
-    <t>Identifies the medication being requested. This is a link to a resource that represents the medication which may be the details of the medication or simply an attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
-  </si>
-  <si>
-    <t>処方する製剤を表すコード。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system コード集で定義された医薬品コード</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.
-コード集で定義された医薬品コードへの情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.
-</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding.id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding.extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding.userSelected</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>medicationReference</t>
@@ -2476,7 +2282,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN107"/>
+  <dimension ref="A1:AN95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2486,7 +2292,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="69.44921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.47265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.16796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -5509,7 +5315,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>88</v>
@@ -5543,7 +5349,7 @@
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>80</v>
+        <v>238</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>80</v>
@@ -5643,13 +5449,13 @@
         <v>168</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5957,7 +5763,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5983,13 +5789,13 @@
         <v>108</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -6018,10 +5824,10 @@
         <v>183</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>80</v>
@@ -6039,7 +5845,7 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>88</v>
@@ -6054,16 +5860,16 @@
         <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -6071,7 +5877,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6097,13 +5903,13 @@
         <v>189</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -6129,13 +5935,13 @@
         <v>80</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>80</v>
@@ -6153,7 +5959,7 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -6168,13 +5974,13 @@
         <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
@@ -6185,7 +5991,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6211,13 +6017,13 @@
         <v>108</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6225,7 +6031,7 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>80</v>
@@ -6246,10 +6052,10 @@
         <v>183</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>80</v>
@@ -6267,7 +6073,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>88</v>
@@ -6282,16 +6088,16 @@
         <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6299,7 +6105,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6325,13 +6131,13 @@
         <v>189</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6361,7 +6167,7 @@
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>80</v>
@@ -6379,7 +6185,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6397,13 +6203,13 @@
         <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -6411,7 +6217,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6437,13 +6243,13 @@
         <v>108</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6472,10 +6278,10 @@
         <v>183</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>80</v>
@@ -6493,7 +6299,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6508,16 +6314,16 @@
         <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6525,7 +6331,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6548,16 +6354,16 @@
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6607,7 +6413,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6628,7 +6434,7 @@
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6639,7 +6445,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6662,13 +6468,13 @@
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6719,7 +6525,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6740,7 +6546,7 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6751,7 +6557,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6774,16 +6580,16 @@
         <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>189</v>
+        <v>299</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6809,13 +6615,13 @@
         <v>80</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>302</v>
+        <v>80</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>80</v>
@@ -6831,7 +6637,7 @@
         <v>304</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>88</v>
@@ -6863,7 +6669,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>310</v>
@@ -6873,10 +6679,10 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>80</v>
@@ -6888,16 +6694,16 @@
         <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>189</v>
+        <v>311</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6923,13 +6729,13 @@
         <v>80</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>314</v>
+        <v>80</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>315</v>
+        <v>80</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>80</v>
@@ -6947,7 +6753,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>88</v>
@@ -6979,7 +6785,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6987,7 +6793,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>88</v>
@@ -6999,18 +6805,20 @@
         <v>80</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>168</v>
+        <v>313</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>169</v>
+        <v>314</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>80</v>
@@ -7059,10 +6867,10 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>171</v>
+        <v>312</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>88</v>
@@ -7071,38 +6879,38 @@
         <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>80</v>
+        <v>317</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>172</v>
+        <v>319</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>80</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>80</v>
@@ -7114,16 +6922,16 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>133</v>
+        <v>323</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>174</v>
+        <v>324</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>175</v>
+        <v>325</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>149</v>
+        <v>326</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -7161,51 +6969,51 @@
         <v>80</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>177</v>
+        <v>322</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>80</v>
+        <v>327</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>80</v>
+        <v>249</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>172</v>
+        <v>328</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>80</v>
+        <v>329</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>80</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7213,7 +7021,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>79</v>
@@ -7225,23 +7033,21 @@
         <v>80</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>80</v>
       </c>
@@ -7289,7 +7095,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -7304,24 +7110,24 @@
         <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>80</v>
+        <v>336</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>80</v>
+        <v>329</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>326</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7329,7 +7135,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>88</v>
@@ -7341,16 +7147,16 @@
         <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>168</v>
+        <v>339</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>169</v>
+        <v>340</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>170</v>
+        <v>341</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7401,7 +7207,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>171</v>
+        <v>338</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7413,38 +7219,38 @@
         <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>80</v>
+        <v>342</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>80</v>
+        <v>343</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>172</v>
+        <v>344</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>80</v>
+        <v>345</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>80</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>80</v>
@@ -7453,19 +7259,19 @@
         <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>133</v>
+        <v>348</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>174</v>
+        <v>349</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>149</v>
+        <v>335</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7503,43 +7309,43 @@
         <v>80</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>177</v>
+        <v>347</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>80</v>
+        <v>351</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>172</v>
+        <v>319</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>80</v>
+        <v>352</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7547,7 +7353,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7555,7 +7361,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>88</v>
@@ -7567,23 +7373,21 @@
         <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>102</v>
+        <v>354</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7631,7 +7435,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7646,24 +7450,24 @@
         <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>80</v>
+        <v>357</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>80</v>
+        <v>359</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>336</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7686,16 +7490,16 @@
         <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7721,13 +7525,11 @@
         <v>80</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="X46" s="2"/>
       <c r="Y46" t="s" s="2">
-        <v>80</v>
+        <v>364</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>80</v>
@@ -7745,7 +7547,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7760,24 +7562,24 @@
         <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>80</v>
+        <v>365</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>343</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7785,7 +7587,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>88</v>
@@ -7797,21 +7599,21 @@
         <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>108</v>
+        <v>368</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7859,7 +7661,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7880,18 +7682,18 @@
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>80</v>
+        <v>372</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>350</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7902,7 +7704,7 @@
         <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>80</v>
@@ -7911,21 +7713,21 @@
         <v>80</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7949,13 +7751,13 @@
         <v>80</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>80</v>
+        <v>377</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>80</v>
@@ -7973,13 +7775,13 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>80</v>
@@ -7988,24 +7790,24 @@
         <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>80</v>
+        <v>379</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>80</v>
+        <v>382</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>357</v>
+        <v>383</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8016,7 +7818,7 @@
         <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>80</v>
@@ -8025,23 +7827,21 @@
         <v>80</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>287</v>
+        <v>385</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>359</v>
+        <v>386</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>360</v>
+        <v>387</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>80</v>
       </c>
@@ -8089,13 +7889,13 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>80</v>
@@ -8104,24 +7904,24 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>80</v>
+        <v>389</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>80</v>
+        <v>249</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>80</v>
+        <v>382</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>365</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8132,7 +7932,7 @@
         <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>80</v>
@@ -8144,20 +7944,18 @@
         <v>89</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>168</v>
+        <v>392</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>80</v>
       </c>
@@ -8205,13 +8003,13 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>80</v>
@@ -8220,28 +8018,26 @@
         <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>373</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
         <v>80</v>
       </c>
@@ -8250,7 +8046,7 @@
         <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>80</v>
@@ -8262,16 +8058,16 @@
         <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>375</v>
+        <v>102</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>311</v>
+        <v>399</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>312</v>
+        <v>394</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>313</v>
+        <v>400</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8321,13 +8117,13 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>297</v>
+        <v>398</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>80</v>
@@ -8336,24 +8132,24 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>306</v>
+        <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>307</v>
+        <v>397</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>309</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8361,10 +8157,10 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>80</v>
@@ -8376,16 +8172,16 @@
         <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>380</v>
+        <v>335</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8435,13 +8231,13 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>80</v>
@@ -8450,24 +8246,24 @@
         <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>382</v>
+        <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>384</v>
+        <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>385</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8487,21 +8283,21 @@
         <v>80</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>387</v>
+        <v>153</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>80</v>
       </c>
@@ -8549,7 +8345,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8564,24 +8360,24 @@
         <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>248</v>
+        <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>393</v>
+        <v>80</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>394</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8592,7 +8388,7 @@
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>80</v>
@@ -8604,16 +8400,16 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>396</v>
+        <v>189</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8639,13 +8435,13 @@
         <v>80</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>80</v>
+        <v>417</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>80</v>
+        <v>418</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>80</v>
@@ -8663,13 +8459,13 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>80</v>
@@ -8678,16 +8474,16 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>393</v>
+        <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -8695,7 +8491,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8703,10 +8499,10 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>80</v>
@@ -8715,18 +8511,20 @@
         <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>80</v>
@@ -8775,13 +8573,13 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>80</v>
@@ -8790,24 +8588,24 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>407</v>
+        <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>409</v>
+        <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>410</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8818,7 +8616,7 @@
         <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>80</v>
@@ -8827,19 +8625,19 @@
         <v>80</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>399</v>
+        <v>430</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8889,13 +8687,13 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>80</v>
@@ -8904,16 +8702,16 @@
         <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>80</v>
+        <v>432</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>383</v>
+        <v>433</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>416</v>
+        <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8921,7 +8719,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8932,7 +8730,7 @@
         <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>80</v>
@@ -8944,16 +8742,16 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>399</v>
+        <v>438</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -9003,13 +8801,13 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>80</v>
@@ -9018,16 +8816,16 @@
         <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>421</v>
+        <v>80</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>423</v>
+        <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -9035,7 +8833,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9055,20 +8853,18 @@
         <v>80</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>189</v>
+        <v>441</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>80</v>
@@ -9093,11 +8889,13 @@
         <v>80</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="X58" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Y58" t="s" s="2">
-        <v>428</v>
+        <v>80</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>80</v>
@@ -9115,7 +8913,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -9130,13 +8928,13 @@
         <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>429</v>
+        <v>80</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>80</v>
+        <v>444</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
@@ -9147,7 +8945,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9170,17 +8968,15 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>432</v>
+        <v>168</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>80</v>
@@ -9229,7 +9025,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>431</v>
+        <v>171</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -9241,7 +9037,7 @@
         <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>80</v>
@@ -9250,10 +9046,10 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>435</v>
+        <v>172</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>436</v>
+        <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -9261,7 +9057,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9284,17 +9080,15 @@
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>438</v>
+        <v>134</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>80</v>
@@ -9319,31 +9113,29 @@
         <v>80</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>441</v>
+        <v>80</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>442</v>
+        <v>80</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AB60" s="2"/>
       <c r="AC60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>437</v>
+        <v>177</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -9355,29 +9147,31 @@
         <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>443</v>
+        <v>80</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>444</v>
+        <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>445</v>
+        <v>80</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>446</v>
+        <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>447</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="B61" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="C61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9398,17 +9192,15 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>80</v>
@@ -9457,7 +9249,7 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>448</v>
+        <v>177</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9466,22 +9258,22 @@
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>453</v>
+        <v>80</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>248</v>
+        <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>454</v>
+        <v>80</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>446</v>
+        <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
@@ -9489,9 +9281,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="B62" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>454</v>
+      </c>
       <c r="C62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9500,7 +9294,7 @@
         <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>80</v>
@@ -9509,20 +9303,18 @@
         <v>80</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L62" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>459</v>
-      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>80</v>
@@ -9571,7 +9363,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>455</v>
+        <v>177</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9580,19 +9372,19 @@
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>460</v>
+        <v>80</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>461</v>
+        <v>80</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
@@ -9603,11 +9395,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>80</v>
+        <v>459</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9620,24 +9412,26 @@
         <v>80</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9697,7 +9491,7 @@
         <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>80</v>
@@ -9706,7 +9500,7 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>461</v>
+        <v>131</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9717,7 +9511,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9728,7 +9522,7 @@
         <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>80</v>
@@ -9737,19 +9531,19 @@
         <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9799,13 +9593,13 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>80</v>
@@ -9814,13 +9608,13 @@
         <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>469</v>
+        <v>80</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
@@ -9831,7 +9625,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9851,21 +9645,19 @@
         <v>80</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>472</v>
+        <v>169</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>473</v>
+        <v>170</v>
       </c>
       <c r="M65" s="2"/>
-      <c r="N65" t="s" s="2">
-        <v>474</v>
-      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9913,7 +9705,7 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>471</v>
+        <v>171</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9925,16 +9717,16 @@
         <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>475</v>
+        <v>80</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>476</v>
+        <v>172</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
@@ -9945,18 +9737,18 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>80</v>
@@ -9968,16 +9760,16 @@
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>478</v>
+        <v>174</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>479</v>
+        <v>175</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>480</v>
+        <v>149</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -10003,13 +9795,13 @@
         <v>80</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>481</v>
+        <v>80</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>482</v>
+        <v>80</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>80</v>
@@ -10027,19 +9819,19 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>477</v>
+        <v>177</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>80</v>
@@ -10048,7 +9840,7 @@
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>483</v>
+        <v>172</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
@@ -10059,11 +9851,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>80</v>
+        <v>459</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -10076,24 +9868,26 @@
         <v>80</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>485</v>
+        <v>133</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>486</v>
+        <v>460</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>487</v>
+        <v>461</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>80</v>
       </c>
@@ -10141,7 +9935,7 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -10153,16 +9947,16 @@
         <v>80</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>488</v>
+        <v>80</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>489</v>
+        <v>131</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
@@ -10173,7 +9967,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10184,7 +9978,7 @@
         <v>78</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>80</v>
@@ -10196,16 +9990,16 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10255,39 +10049,39 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>100</v>
+        <v>476</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>495</v>
+        <v>80</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>496</v>
+        <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>80</v>
+        <v>478</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10298,7 +10092,7 @@
         <v>78</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>80</v>
@@ -10310,16 +10104,16 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>502</v>
+        <v>475</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10369,13 +10163,13 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>80</v>
@@ -10390,7 +10184,7 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
@@ -10401,7 +10195,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10424,15 +10218,17 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>486</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>80</v>
@@ -10481,7 +10277,7 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10499,10 +10295,10 @@
         <v>80</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>508</v>
+        <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>509</v>
+        <v>483</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
@@ -10513,7 +10309,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>510</v>
+        <v>487</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10536,16 +10332,20 @@
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>511</v>
+        <v>488</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>80</v>
       </c>
@@ -10593,7 +10393,7 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>171</v>
+        <v>487</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10605,16 +10405,16 @@
         <v>80</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>80</v>
+        <v>492</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>172</v>
+        <v>493</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
@@ -10625,7 +10425,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10636,7 +10436,7 @@
         <v>78</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>80</v>
@@ -10648,13 +10448,13 @@
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10693,29 +10493,31 @@
         <v>80</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AB72" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AC72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>80</v>
@@ -10724,7 +10526,7 @@
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
@@ -10735,13 +10537,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>514</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10760,15 +10560,17 @@
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>515</v>
+        <v>133</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>516</v>
+        <v>174</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M73" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>80</v>
@@ -10805,16 +10607,16 @@
         <v>80</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE73" t="s" s="2">
         <v>177</v>
@@ -10826,7 +10628,7 @@
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>139</v>
@@ -10838,7 +10640,7 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
@@ -10849,11 +10651,9 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>518</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
         <v>80</v>
       </c>
@@ -10871,18 +10671,20 @@
         <v>80</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>519</v>
+        <v>339</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>520</v>
+        <v>497</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>80</v>
@@ -10931,19 +10733,19 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>177</v>
+        <v>500</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>144</v>
+        <v>501</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>80</v>
@@ -10952,58 +10754,58 @@
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>80</v>
+        <v>503</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>523</v>
+        <v>80</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>133</v>
+        <v>339</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>524</v>
+        <v>505</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>525</v>
+        <v>506</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>508</v>
+      </c>
       <c r="Q75" t="s" s="2">
         <v>80</v>
       </c>
@@ -11047,19 +10849,19 @@
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>80</v>
@@ -11068,18 +10870,18 @@
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>131</v>
+        <v>510</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>80</v>
+        <v>511</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11102,16 +10904,16 @@
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -11161,7 +10963,7 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -11179,21 +10981,21 @@
         <v>80</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>80</v>
+        <v>517</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>80</v>
+        <v>519</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11216,15 +11018,17 @@
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>168</v>
+        <v>472</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>169</v>
+        <v>521</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>522</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>80</v>
@@ -11273,7 +11077,7 @@
         <v>80</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>171</v>
+        <v>520</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -11282,10 +11086,10 @@
         <v>88</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>80</v>
+        <v>476</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>80</v>
@@ -11294,29 +11098,29 @@
         <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>172</v>
+        <v>477</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>80</v>
+        <v>478</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>80</v>
@@ -11328,16 +11132,16 @@
         <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>133</v>
+        <v>480</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>174</v>
+        <v>524</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>175</v>
+        <v>525</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>149</v>
+        <v>526</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11387,28 +11191,28 @@
         <v>80</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>177</v>
+        <v>523</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>80</v>
+        <v>527</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>172</v>
+        <v>528</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>80</v>
@@ -11419,43 +11223,39 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>523</v>
+        <v>80</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>524</v>
+        <v>169</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>80</v>
       </c>
@@ -11503,19 +11303,19 @@
         <v>80</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>526</v>
+        <v>171</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>80</v>
@@ -11524,7 +11324,7 @@
         <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>80</v>
@@ -11535,18 +11335,18 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>80</v>
@@ -11558,16 +11358,16 @@
         <v>80</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>536</v>
+        <v>133</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>537</v>
+        <v>174</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>538</v>
+        <v>175</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>539</v>
+        <v>149</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11605,31 +11405,31 @@
         <v>80</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="AC80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>535</v>
+        <v>177</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>540</v>
+        <v>139</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>80</v>
@@ -11638,18 +11438,18 @@
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>541</v>
+        <v>172</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>542</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11669,21 +11469,23 @@
         <v>80</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>535</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>536</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>80</v>
       </c>
@@ -11731,7 +11533,7 @@
         <v>80</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11752,18 +11554,18 @@
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>80</v>
+        <v>539</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11780,28 +11582,30 @@
         <v>80</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J82" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P82" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="K82" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
         <v>80</v>
       </c>
@@ -11821,13 +11625,13 @@
         <v>80</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>80</v>
+        <v>545</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>80</v>
+        <v>546</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>80</v>
@@ -11845,7 +11649,7 @@
         <v>80</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11866,18 +11670,18 @@
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>80</v>
+        <v>549</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11897,29 +11701,27 @@
         <v>80</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" s="2"/>
+      <c r="N83" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
-        <v>80</v>
+        <v>554</v>
       </c>
       <c r="R83" t="s" s="2">
         <v>80</v>
@@ -11961,7 +11763,7 @@
         <v>80</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -11979,16 +11781,16 @@
         <v>80</v>
       </c>
       <c r="AK83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL83" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="AL83" t="s" s="2">
+      <c r="AM83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN83" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="84">
@@ -12013,25 +11815,27 @@
         <v>80</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>169</v>
+        <v>559</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>170</v>
+        <v>560</v>
       </c>
       <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
+      <c r="N84" t="s" s="2">
+        <v>561</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
-        <v>80</v>
+        <v>562</v>
       </c>
       <c r="R84" t="s" s="2">
         <v>80</v>
@@ -12073,7 +11877,7 @@
         <v>80</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>171</v>
+        <v>563</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -12082,10 +11886,10 @@
         <v>88</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>80</v>
+        <v>564</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>80</v>
@@ -12094,29 +11898,29 @@
         <v>80</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>172</v>
+        <v>565</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>80</v>
+        <v>557</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>80</v>
@@ -12125,27 +11929,29 @@
         <v>80</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>174</v>
+        <v>567</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>175</v>
+        <v>568</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>569</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>570</v>
+      </c>
       <c r="O85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" t="s" s="2">
-        <v>80</v>
+        <v>571</v>
       </c>
       <c r="R85" t="s" s="2">
         <v>80</v>
@@ -12175,31 +11981,31 @@
         <v>80</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="AC85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>177</v>
+        <v>572</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>80</v>
@@ -12208,18 +12014,18 @@
         <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>172</v>
+        <v>573</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>80</v>
+        <v>557</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12239,19 +12045,19 @@
         <v>80</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>403</v>
+        <v>575</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>562</v>
+        <v>577</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>563</v>
+        <v>335</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -12301,7 +12107,7 @@
         <v>80</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12310,7 +12116,7 @@
         <v>88</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>565</v>
+        <v>80</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>100</v>
@@ -12322,18 +12128,18 @@
         <v>80</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>80</v>
+        <v>372</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>567</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12353,27 +12159,23 @@
         <v>80</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>403</v>
+        <v>441</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>571</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P87" t="s" s="2">
-        <v>572</v>
-      </c>
+      <c r="P87" s="2"/>
       <c r="Q87" t="s" s="2">
         <v>80</v>
       </c>
@@ -12417,7 +12219,7 @@
         <v>80</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -12426,7 +12228,7 @@
         <v>88</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>565</v>
+        <v>80</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>100</v>
@@ -12435,21 +12237,21 @@
         <v>80</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>80</v>
+        <v>582</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>575</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12472,17 +12274,15 @@
         <v>80</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>577</v>
+        <v>168</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>578</v>
+        <v>169</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>580</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>80</v>
@@ -12531,7 +12331,7 @@
         <v>80</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>576</v>
+        <v>171</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12543,38 +12343,38 @@
         <v>80</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>581</v>
+        <v>80</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>582</v>
+        <v>172</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>583</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>80</v>
@@ -12586,16 +12386,16 @@
         <v>80</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>536</v>
+        <v>133</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>585</v>
+        <v>174</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>586</v>
+        <v>175</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>539</v>
+        <v>149</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12645,19 +12445,19 @@
         <v>80</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>584</v>
+        <v>177</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>540</v>
+        <v>139</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>80</v>
@@ -12666,52 +12466,54 @@
         <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>541</v>
+        <v>172</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>542</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>80</v>
+        <v>459</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>544</v>
+        <v>133</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>588</v>
+        <v>460</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>589</v>
+        <v>461</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O90" t="s" s="2">
         <v>80</v>
       </c>
@@ -12759,28 +12561,28 @@
         <v>80</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>587</v>
+        <v>462</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>591</v>
+        <v>80</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>592</v>
+        <v>131</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>80</v>
@@ -12791,7 +12593,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12799,7 +12601,7 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F91" t="s" s="2">
         <v>88</v>
@@ -12814,15 +12616,17 @@
         <v>80</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>169</v>
+        <v>588</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M91" s="2"/>
+        <v>588</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>589</v>
+      </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>80</v>
@@ -12847,13 +12651,11 @@
         <v>80</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X91" s="2"/>
       <c r="Y91" t="s" s="2">
-        <v>80</v>
+        <v>590</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>80</v>
@@ -12871,10 +12673,10 @@
         <v>80</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>171</v>
+        <v>587</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>88</v>
@@ -12883,38 +12685,38 @@
         <v>80</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>80</v>
+        <v>582</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>172</v>
+        <v>591</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>80</v>
+        <v>592</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>80</v>
@@ -12926,16 +12728,16 @@
         <v>80</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>174</v>
+        <v>594</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>175</v>
+        <v>595</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>149</v>
+        <v>596</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12961,63 +12763,63 @@
         <v>80</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>80</v>
+        <v>597</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>80</v>
+        <v>598</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="AC92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD92" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>177</v>
+        <v>593</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>80</v>
+        <v>599</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>172</v>
+        <v>600</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>80</v>
+        <v>601</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13037,23 +12839,21 @@
         <v>80</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>600</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>80</v>
       </c>
@@ -13101,7 +12901,7 @@
         <v>80</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -13116,114 +12916,112 @@
         <v>100</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>80</v>
+        <v>606</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>80</v>
+        <v>599</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>603</v>
+        <v>80</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>80</v>
+        <v>609</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>108</v>
+        <v>610</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" t="s" s="2">
-        <v>607</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P94" t="s" s="2">
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE94" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="Q94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>611</v>
-      </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>80</v>
@@ -13238,18 +13036,18 @@
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>613</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13260,7 +13058,7 @@
         <v>78</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>80</v>
@@ -13269,27 +13067,27 @@
         <v>80</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>168</v>
+        <v>616</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" t="s" s="2">
-        <v>617</v>
-      </c>
+        <v>618</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P95" s="2"/>
       <c r="Q95" t="s" s="2">
-        <v>618</v>
+        <v>80</v>
       </c>
       <c r="R95" t="s" s="2">
         <v>80</v>
@@ -13331,13 +13129,13 @@
         <v>80</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>80</v>
@@ -13346,1384 +13144,18 @@
         <v>100</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>80</v>
+        <v>620</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="M96" s="2"/>
-      <c r="N96" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
-      <c r="O100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P102" s="2"/>
-      <c r="Q102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="F103" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="N103" s="2"/>
-      <c r="O103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P103" s="2"/>
-      <c r="Q103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="X103" s="2"/>
-      <c r="Y103" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F104" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="N104" s="2"/>
-      <c r="O104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P104" s="2"/>
-      <c r="Q104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F105" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N105" s="2"/>
-      <c r="O105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P105" s="2"/>
-      <c r="Q105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="B106" s="2"/>
-      <c r="C106" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="N106" s="2"/>
-      <c r="O106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P106" s="2"/>
-      <c r="Q106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="B107" s="2"/>
-      <c r="C107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D107" s="2"/>
-      <c r="E107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="N107" s="2"/>
-      <c r="O107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P107" s="2"/>
-      <c r="Q107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN107" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -1767,7 +1767,7 @@
     <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
-    <t>日</t>
+    <t>day</t>
   </si>
   <si>
     <t>Quantity.unit</t>
